--- a/재고관리_WBS_분석.xlsx
+++ b/재고관리_WBS_분석.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10455" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="24375" windowHeight="10455"/>
   </bookViews>
   <sheets>
     <sheet name="PC 버전" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="224">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="606" uniqueCount="493">
   <si>
     <t>메뉴</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -209,9 +209,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>/SCode_Add.do</t>
-  </si>
-  <si>
     <t>/User_Add.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -477,10 +474,6 @@
   </si>
   <si>
     <t>/Other_Add_Save.do</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>/Ajax_BOUNBU.do</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -959,12 +952,1498 @@
     <t>userService.getUserInfo(id), inOutService.updateAndroidReturn(DOCNO, CCODE, MODEL, BISSTS, id), inOutService.getAndroidModelRetuen("", "", LOGC, BONBU, CENTER, "", ""), UserInfo.getMUT_POSITION()</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>@RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/SCode_Add.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "SCODE", defaultValue = "") String SCODE,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODE", defaultValue = "") String LCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "USERID", defaultValue = "") String USERID,
+   @RequestParam(value = "UNAME", defaultValue = "") String UNAME,
+   @RequestParam(value = "PASS", defaultValue = "") String PASS,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "POSITION", defaultValue = "") String POSITION,
+   @RequestParam(value = "HP", defaultValue = "") String HP,
+   @RequestParam(value = "StartDay", defaultValue = "1900-01-01") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "2100-12-31") String EndDay,
+   @RequestParam(value = "BizSts", defaultValue = "Y") String BizSts,
+   @RequestParam(value = "SIGN_ORG_FILE", defaultValue = "") String SIGN_ORG_FILE,
+   @RequestParam(value = "SIGN_FILE", defaultValue = "") String SIGN_FILE,
+   @RequestParam(value = "file") MultipartFile file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "USERID", defaultValue = "") String USERID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC") String LOGC,
+         @RequestParam(value = "BONBU") String BONBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC") String LOGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Service Call</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>로그인</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/login.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("id") String id, @RequestParam("password") String pw</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.login_process(id, pw, login_result)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), noticeService.getNoticeMainList(PAGE, 10, userService.getUserID(request)), noticeService.getNoticeMainPopup(userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu_top.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("user_id") String user_id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserInfo(user_id)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/menu_list.do</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/download</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "sysFile", defaultValue = "") String sysFile,
+   @RequestParam(value = "orgFile", defaultValue = "") String orgFile,
+   @RequestParam(value = "PATH", defaultValue = "") String PATH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileService.filePath(request, PATH) + "/" + sysFile</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/display</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam("PATH") String PATH, @RequestParam("ORGFILE") String ORGFILE, @RequestParam("FILE") String FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileService.filePath(request, PATH), fileService.getType(formatName)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getLcodeInfo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codelist_serach</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "CodeKind", defaultValue = "") String CodeKind,
+   @RequestParam(value = "CNAME", defaultValue = "") String CNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getLcodeInfo(), codeService.getLNAMESearch(CNAME), userService.getUserID(request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codelist_Lcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), codeService.getLcodeDetail(LCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>codelist_Mcode</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getMcodeDetail(LCODE, MCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getLcodeInfo_Detail(LCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCode_Add_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "LNAME", defaultValue = "") String LNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.insertCODE(vo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LCode_Add_Del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCode_Add_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "LNAME", defaultValue = "") String LNAME,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>MCode_Add_Del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getMcodeInfo_Detail(LCODE, MCODE), codeService.getScodeInfo_Detail(LCODE, MCODE, SCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCode_Add_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "LNAME", defaultValue = "") String LNAME,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "SCODE", defaultValue = "") String SCODE,
+   @RequestParam(value = "SNAME", defaultValue = "") String SNAME,
+   @RequestParam(value = "ORDER", defaultValue = "") String ORDER,
+   @RequestParam(value = "REMARK", defaultValue = "") String REMARK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.insertCODE(vo), codeService.updateSCODE(vo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SCode_Add_Del</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "SCODE", defaultValue = "") String SCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Centerlist</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), centerService.getLOGCInfo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterList_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "CenterKind", defaultValue = "") String CenterKind,
+   @RequestParam(value = "CNAME", defaultValue = "") String CNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), centerService.getLOGCNAMESearch(CNAME), centerService.getBNAMESearch(CNAME), centerService.getCNAMESearch(CNAME)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterList_LOGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request), UserInfo.getMUT_POSITION(), centerService.getLOGCDetail(LOGC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>CenterList_BONBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), centerService.getBONBUDetail(LOGC, BONBU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), centerService.getLOGCInfo_Detail(LOGC), centerService.getBONBUInfo_Detail(LOGC, BONBU)</t>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "LNAME", defaultValue = "") String LNAME,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "BNAME", defaultValue = "") String BNAME</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), centerService.insertCenter(vo), centerService.updateBONBU(vo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), centerService.deleteBONBU(LOGC, BONBU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "USERID", defaultValue = "") String USERID,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), codeService.getLcodeDetail(LCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), UserInfo.getMUT_POSITION(), codeService.getMcodeDetail(LCODE, MCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC)userService.getUserList("", "", "", "", 1, 10), BONBU), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Userlist_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "UNAME", defaultValue = "") String UNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC),centerService.getCENTERList(LOGC, BONBU), userService.getUserList(LOGC, BONBU, CENTER, UNAME, PAGE, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), codeService.getSCodeList("100", "POZSN")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(UserInfo.getMCI_LOGC()), centerService.getCENTERList(UserInfo.getMCI_LOGC(), UserInfo.getMCI_Bonbu()), codeService.getSCodeList("100", "POZSN")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "USERID", defaultValue = "") String USERID,
+   @RequestParam(value = "UNAME", defaultValue = "") String UNAME,
+   @RequestParam(value = "PASS", defaultValue = "") String PASS,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "POSITION", defaultValue = "") String POSITION,
+   @RequestParam(value = "HP", defaultValue = "") String HP,
+   @RequestParam(value = "StartDay", defaultValue = "1900-01-01") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "2100-12-31") String EndDay,
+   @RequestParam(value = "BizSts", defaultValue = "Y") String BizSts,
+   @RequestParam(value = "SIGN_ORG_FILE", defaultValue = "") String SIGN_ORG_FILE,
+   @RequestParam(value = "SIGN_FILE", defaultValue = "") String SIGN_FILE,
+   @RequestParam(value = "file", defaultValue = "") MultipartFile file</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getIDCHECK(USERID)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centerService.getCENTERList(LOGC, BONBU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centerService.getBONBUList(LOGC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "USERID", defaultValue = "") String USERID,
+   @RequestParam(value = "SIGN_FILE", defaultValue = "") String SIGN_FILE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), userService.deleteUser(USERID), fileService.fileDelete(SIGN_FILE, "SIGN", request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), modelService.getModelList("", "", "", "", "", "", "", "", 1, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <r>
+      <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getSCodeList("200","200"), centerService.getLOGCInfo(), codeService.getSCodeList("200","201")</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>,</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="맑은 고딕"/>
+        <family val="3"/>
+        <charset val="129"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> modelService.getModelInfo(MCODE), modelService.ModelIlyeog(MCODE)</t>
+    </r>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "KINDS", defaultValue = "") String KINDS,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "LCODE", defaultValue = "") String LCODE,
+   @RequestParam(value = "MGROUP", defaultValue = "") String MGROUP,
+   @RequestParam(value = "SGROUP", defaultValue = "") String SGROUP,
+   @RequestParam(value = "UNIT", defaultValue = "") String UNIT,
+   @RequestParam(value = "StartDay", defaultValue = "1900-01-01") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "2100-12-31") String EndDay,
+   @RequestParam(value = "BizSts", defaultValue = "Y") String BizSts,
+   @RequestParam(value = "CMNT", defaultValue = "") String CMNT,
+   @RequestParam(value = "ERPMODEL", defaultValue = "") String ERPMODEL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LCODEList", defaultValue = "") String LCODE,
+   @RequestParam(value = "MCODEList", defaultValue = "") String MCODE,
+   @RequestParam(value = "SCODEList", defaultValue = "") String SCODE,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "MCODENAME", defaultValue = "") String MCODENAME,
+   @RequestParam(value = "SCODENAME", defaultValue = "") String SCODENAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">modelService.getModelList(LOGC, LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, "", PAGE, 9), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "MCODE", defaultValue = "") String MCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), modelService.getModelInfo(MCODE), modelService.ModelIlyeog(MCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC") String LOGC,
+   @RequestParam(value = "LCODE") String LCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelService.MgroupList(LOGC, LCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC") String LOGC,
+   @RequestParam(value = "LCODE") String LCODE,
+   @RequestParam(value = "MCODE") String MCODE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelService.SgroupList(LOGC, LCODE, MCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelService.getModelInfo(MCODE), modelService.WriteQrCode(ModelInfo.getMMC_CODE(), ModelInfo.getMMC_LGROUPNAME(), ModelInfo.getMMC_MGROUP(), ModelInfo.getMMC_SGROUP(), 200, 200, request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo_Detail(LOGC)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "LNAME", defaultValue = "") String LNAME,
+   @RequestParam(value = "BRN", defaultValue = "") String BRN,
+   @RequestParam(value = "CoName", defaultValue = "") String CoName,
+   @RequestParam(value = "CEO", defaultValue = "") String CEO,
+   @RequestParam(value = "Addr", defaultValue = "") String Addr,
+   @RequestParam(value = "CoType", defaultValue = "") String CoType,
+   @RequestParam(value = "Jongmog", defaultValue = "") String Jongmog,
+   @RequestParam(value = "PIC", defaultValue = "") String PIC,
+   @RequestParam(value = "PICHP", defaultValue = "") String PICHP</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.insertCenter(vo), centerService.updateLOGC(vo), centerService.updateLOGCNM(vo)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getBONBUInfo_Detail(LOGC, BONBU), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "LNAME", defaultValue = "") String LNAME,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "BNAME", defaultValue = "") String BNAME,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "CNAME", defaultValue = "") String CNAME,
+   @RequestParam(value = "BRN", defaultValue = "") String BRN,
+   @RequestParam(value = "CoName", defaultValue = "") String CoName,
+   @RequestParam(value = "CEO", defaultValue = "") String CEO,
+   @RequestParam(value = "Addr", defaultValue = "") String Addr,
+   @RequestParam(value = "CoType", defaultValue = "") String CoType,
+   @RequestParam(value = "Jongmog", defaultValue = "") String Jongmog,
+   @RequestParam(value = "PIC", defaultValue = "") String PIC,
+   @RequestParam(value = "PICHP", defaultValue = "") String PICHP,
+   @RequestParam(value = "StartDay", defaultValue = "1900-01-01") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "2100-12-31") String EndDay,
+   @RequestParam(value = "BizSts", defaultValue = "Y") String BizSts,
+   @RequestParam(value = "ORDER", defaultValue = "") String ORDER,
+   @RequestParam(value = "REMARK", defaultValue = "") String REMARK)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.insertCenter(vo), centerService.updateCENTER(vo), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.deleteCENTER(LOGC, BONBU, CENTER)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCDetail(LOGC), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getBONBUDetail(LOGC, BONBU), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), noticeService.getNoticeList("", 1, 10, userService.getUserID(request)), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Notice_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TITLE", defaultValue = "") String TITLE,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), noticeService.getNoticeList(TITLE, PAGE, 10, userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "msg", defaultValue = "") String msg,
+   @RequestParam(value = "TYPE", defaultValue = "") String TYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), noticeService.getNoticeInfo(DOCNO), noticeService.updateNoticeUser(DOCNO, userService.getUserID(request)), noticeService.getSusinList(DOCNO), noticeService.getNoticeFileList(DOCNO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "TITLE", defaultValue = "") String TITLE,
+   @RequestParam(value = "POPUP", defaultValue = "") String POPUP,
+   @RequestParam(value = "TOPNOTICE", defaultValue = "") String TOPNOTICE,
+   @RequestParam(value = "RECEIVETYPE", defaultValue = "") String RECEIVETYPE,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "SUSINID", defaultValue = "") String SUSINID,
+   @RequestParam(value="SUSINID", required = false) List&lt;String&gt; SUSINlist,
+   @RequestParam(value = "CMNT", defaultValue = "") String CMNT,
+   @RequestParam(value="Addfile", required = false) List&lt;MultipartFile&gt; fileList,
+   @RequestParam(value = "TEMPSTS", defaultValue = "") String TEMPSTS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)),  noticeService.getNoticeInfo(DOCNO), noticeService.insertNotice(vo), noticeService.updateNotice(vo), noticeService.insertNoticeFile(fileVo, file, request), noticeService.deleteSusinList(DOCNO), noticeService.insertSusinList(susinList)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">(userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), noticeService.getNoticeInfo(DOCNO), noticeService.getNoticeFileList(DOCNO), noticeService.deleteNoticeFile(noticeVo.getMDF_DOCNO(), noticeVo.getMDF_SEQ()), noticeService.deleteSusinList(DOCNO), noticeService.deleteNoticeUser(DOCNO), noticeService.deleteNotice(DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "POP_LOGC", defaultValue = "") String POP_LOGC,
+   @RequestParam(value = "POP_BONBU", defaultValue = "") String POP_BONBU,
+   @RequestParam(value = "POP_CENTER", defaultValue = "") String POP_CENTER,
+   @RequestParam(value = "POP_UNAME", defaultValue = "") String POP_UNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getPOPUserList(POP_LOGC, POP_BONBU, POP_CENTER, POP_UNAME, PAGE, 10), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax_CheckUser</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), noticeService.getNoticeUser(DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), CommonService(), centerService.getLOGCInfo(), inOutService.getLogcInList(StartDay, EndDay, "", "", "", 1, 10), codeService.getSCodeList("200","201"), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "BISSTS", defaultValue = "") String BISSTS,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), inOutService.getLogcInList(StartDay, EndDay, LOGC, MNAME, BISSTS, PAGE, 10),  CommonService(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogcInList_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">modelService.getModelList(LOGC, LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, "Y", PAGE, 10), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "JEJO", defaultValue = "") String JEJO,
+   @RequestParam(value = "INDATE", defaultValue = "") String INDATE,
+   @RequestParam(value = "INPRICE", defaultValue = "0") String INPRICE,
+   @RequestParam(value = "INCNT", defaultValue = "0") String INCNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogcIn_Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogcIn_Modify_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "JEJO", defaultValue = "") String JEJO,
+   @RequestParam(value = "INDATE", defaultValue = "") String INDATE,
+   @RequestParam(value = "INPRICE", defaultValue = "0") String INPRICE,
+   @RequestParam(value = "INCNT", defaultValue = "0") String INCNT,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>LogcIn_Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO), inOutService.deleteLogcIn(DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BaseController.java</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), CommonService(), centerService.getLOGCInfo(), inOutService.getBonbuInList(InStartDay, InEndDay, OutStartDay, OutEndDay, LOGC, "", 1, 10), codeService.getSCodeList("200","201"), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonbuInList_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "InStartDay", defaultValue = "") String InStartDay,
+   @RequestParam(value = "InEndDay", defaultValue = "") String InEndDay,
+   @RequestParam(value = "OutStartDay", defaultValue = "") String OutStartDay,
+   @RequestParam(value = "OutEndDay", defaultValue = "") String OutEndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), inOutService.getBonbuInList(InStartDay, InEndDay, OutStartDay, OutEndDay, LOGC, MNAME, PAGE, 10), codeService.getSCodeList("200","201"), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inOutService.getLogcInList(StartDay, EndDay, LOGC, MNAME, "0", PAGE, 10), CommonService(), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">inOutService.getLogcInInfo(DOCNO), inOutService.getBonbuInInfo(LogcInInfo.getDIL_LOGC(), LogcInInfo.getDIL_DOCNO(), LogcInInfo.getDIL_MODEL()), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE", defaultValue = "") String TYPE,
+   @RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value="CENTER[]") List&lt;String&gt; CENTER, 
+   @RequestParam(value="JEGO[]") List&lt;String&gt; JEGO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inOutService.getLogcInInfo(DOCNO), inOutService.updateModelJego(LogcInInfo.getDIL_MODEL(), TCENTER, i_Jego, "BonbuIn_Add", userService.getUserID(request)), inOutService.getBonbuInInfo(LogcInInfo.getDIL_LOGC(), LogcInInfo.getDIL_DOCNO(), LogcInInfo.getDIL_MODEL())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "OUTDATE", defaultValue = "") String OUTDATE,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "OUTCNT", defaultValue = "") String OUTCNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO), inOutService.insertBonbuIn(LogcInInfo.getDIL_DOCNO(), LogcInInfo.getDIL_MODEL(), OUTDATE, CENTERLIST, OUTCNTLIST, userService.getUserID(request)), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonbuIn_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO), inOutService.getBonbuInInfo(LogcInInfo.getDIL_LOGC(), LogcInInfo.getDIL_DOCNO(), LogcInInfo.getDIL_MODEL()), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonbuIn_Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuInInfo(LogcInInfo.getDIL_LOGC(), LogcInInfo.getDIL_DOCNO(), LogcInInfo.getDIL_MODEL()), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonbuIn_Modify_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO), inOutService.updateBonbuIn(DOCNO, CENTERLIST, OUTCNTLIST, userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonbuIn_Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getLogcInInfo(DOCNO), inOutService.deleteBonbuIn(DOCNO, userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getOrderList(StartDay, EndDay, LOGC, BONBU, CENTER, "", 1, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OrderList_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), inOutService.getOrderList(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, PAGE, 10), CommonService(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), codeService.getSCodeList("200","201"), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">modelService.getModelList(LOGC, LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, "Y", PAGE, 10), CommonService() </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "UESRID", defaultValue = "") String UESRID,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "ORDERDATE", defaultValue = "") String ORDERDATE,
+   @RequestParam(value = "OrderQty", defaultValue = "0") String OrderQty,
+   @RequestParam(value = "CMNT", defaultValue = "") String CMNT,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(UESRID), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.insertOrder(orderVo, DBO_CENTER, DBO_USER, ORDERDATE, CMNT, MCODE, i_OrderQty, userService.getUserID(request)), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getOrderInfo(DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Modify</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Modify_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "ORDERDATE", defaultValue = "") String ORDERDATE,
+   @RequestParam(value = "OrderQty", defaultValue = "0") String OrderQty,
+   @RequestParam(value = "CMNT", defaultValue = "") String CMNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getOrderInfo(DOCNO), inOutService.updateOrder(UserInfo.getMUT_POSITION(), DOCNO, ORDERDATE, i_OrderQty, CMNT, "Order_Modify", userService.getUserID(request)), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Order_Delete</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getOrderInfo(DOCNO), inOutService.deleteOrder(UserInfo.getMUT_POSITION(), DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax_BonbuCheck</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>inOutService.getBonbuInCheck(DOCNO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), ommonService(), codeService.getSCodeList("200","201"), inOutService.getBonbuMOVEList(UserInfo, "", LOGC, BONBU, CENTER, "", "", "", OutStartDay, OutEndDay, InStartDay, InEndDay, "", 1, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>BonbuMove_List_Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "OutStartDay", defaultValue = "") String OutStartDay,
+   @RequestParam(value = "OutEndDay", defaultValue = "") String OutEndDay,
+   @RequestParam(value = "InStartDay", defaultValue = "") String InStartDay,
+   @RequestParam(value = "InEndDay", defaultValue = "") String InEndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "INLOGC", defaultValue = "") String INLOGC,
+   @RequestParam(value = "INBONBU", defaultValue = "") String INBONBU,
+   @RequestParam(value = "INCENTER", defaultValue = "") String INCENTER,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "CTYPE", defaultValue = "") String CTYPE,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(INLOGC), centerService.getCENTERList(INLOGC, INBONBU), inOutService.getBonbuMOVEList(UserInfo, CTYPE, LOGC, BONBU, CENTER, INLOGC, INBONBU, INCENTER, OutStartDay, OutEndDay, InStartDay, InEndDay, MNAME, PAGE, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "msg", defaultValue = "") String msg,
+   @RequestParam(value = "DOCNO", defaultValue = "") String DOCNO</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuMOVEInfo(DOCNO), inOutService.getJegoModel(MoveInfo.getDBO_MODEL(), MoveInfo.getDBM_CENTER(), MoveInfo.getDBM_DATE()), centerService.getBONBUList(MoveInfo.getINLOGC()), centerService.getCENTERList(MoveInfo.getINLOGC(), MoveInfo.getOUTBONBU()),</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">centerService.getCENTERList(LOGC, BONBU), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "MODEL") String MODEL,
+         @RequestParam(value = "LOGC") String LOGC,
+         @RequestParam(value = "BONBU") String BONBU,
+         @RequestParam(value = "CENTER") String CENTER,
+         @RequestParam(value = "NOWDATE", defaultValue = "") String NOWDATE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getJegoModel(MODEL, centerVo.getMCI_CODE(), NOWDATE), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "DBM_DATE", defaultValue = "") String DBM_DATE,
+   @RequestParam(value = "DBM_QTY", defaultValue = "") String DBM_QTY,
+   @RequestParam(value = "DBM_HOWMOVE", defaultValue = "") String DBM_HOWMOVE,
+   @RequestParam(value = "DBM_CMNT", defaultValue = "") String DBM_CMNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuMOVEInfo(DOCNO), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.updateMoveCFM(DOCNO, centerVo.getMCI_CODE(), DBM_DATE, DBM_QTY, DBM_HOWMOVE, DBM_CMNT, "BonbuMove_CFM", userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getBonbuMOVEInfo(DOCNO), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER)inOutService.updateMove(DOCNO, userService.getUserID(request), DBM_HOWMOVE, DBM_CMNT, "BonbuMove_Save", MoveInfo.getDBO_MODEL(), DBM_DATE, i_DBM_QTY, centerVo.getMCI_CODE(), MoveInfo.getDBM_CFM())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "MODEL") String MODEL,
+   @RequestParam(value = "LOGC") String LOGC,
+   @RequestParam(value = "BONBU") String BONBU,
+   @RequestParam(value = "CENTER") String CENTER,
+   @RequestParam(value = "NOWDATE") String NOWDATE,
+   @RequestParam(value = "DBM_QTY") String DBM_QTY</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getJegoChk(MODEL, centerVo.getMCI_CODE(), NOWDATE, i_DBM_QTY, map)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getJegoModel(MODEL, centerVo.getMCI_CODE(), NOWDATE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax_MOVECENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE") String TYPE,
+   @RequestParam(value = "LOGC") String LOGC,
+   @RequestParam(value = "BONBU") String BONBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Ajax_MOVEBONBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "TYPE") String TYPE,
+   @RequestParam(value = "LOGC") String LOGC</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getJegoChk(MODEL, centerVo.getMCI_CODE(), NOWDATE, i_DBM_QTY, map), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>modelService.getModelList(LOGC, LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, "Y", PAGE, 10), CommonService()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "OUTDATE", defaultValue = "") String OUTDATE,
+   @RequestParam(value = "QTY", defaultValue = "0") String QTY,
+   @RequestParam(value = "OUTCMNT", defaultValue = "") String OUTCMNT,
+   @RequestParam(value = "CMNT", defaultValue = "") String CMNT,
+   @RequestParam(value="Addfile", required = false) List&lt;MultipartFile&gt; fileList,
+   @RequestParam(value = "msg", defaultValue = "") String msg</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.insertOther(vo, centerVo.getMCI_CODE(), MCODE, OUTDATE, i_QTY, OUTCMNT, CMNT, userService.getUserID(request), "Other_Add", fileList, request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getInCFMList(StartDay, EndDay, LOGC, BONBU, CENTER, "", "", "", 1, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Cfm_List_Search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "INSTS", defaultValue = "") String INSTS,
+   @RequestParam(value = "CFMSTS", defaultValue = "") String CFMSTS,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), inOutService.getInCFMList(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, INSTS, CFMSTS, PAGE, 10),CommonService(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "INTYPE", defaultValue = "") String INTYPE,
+   @RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "msg", defaultValue = "") String msg,
+   @RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "INSTS", defaultValue = "") String INSTS,
+   @RequestParam(value = "CFMSTS", defaultValue = "") String CFMSTS,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getInCFMLogcInfo(DOCNO), inOutService.getInCFMBonbuInfo(DOCNO), noticeService.getNoticeFileList(DOCNO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "INTYPE", defaultValue = "") String INTYPE,
+   @RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "DIC_DATE", defaultValue = "") String DIC_DATE,
+   @RequestParam(value = "DIC_CMNT", defaultValue = "") String DIC_CMNT,
+   @RequestParam(value = "CFMsts", defaultValue = "") String CFMsts,
+   @RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "INSTS", defaultValue = "") String INSTS,
+   @RequestParam(value = "CFMSTS", defaultValue = "") String CFMSTS,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE,
+   @RequestParam(value="Addfile", required = false) List&lt;MultipartFile&gt; fileList</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.updateCfm(CFMsts, DOCNO, INTYPE, userService.getUserID(request), DIC_DATE, DIC_CMNT, "BonbuCfm_PASS", fileList, request), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getOtherList(StartDay, EndDay, "", "", "", "", 1, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>OtherList_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), inOutService.getOtherList(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, PAGE, 10), CommonService(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Other_DEAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO", defaultValue = "") String DOCNO,
+   @RequestParam(value = "msg", defaultValue = "") String msg)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getOtherInfo(DOCNO), noticeService.getNoticeFileList(DOCNO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "YEAR", defaultValue = "0") int YEAR,
+   @RequestParam(value = "INTYPE", defaultValue = "0") int INTYPE,
+   @RequestParam(value = "CTYPE", defaultValue = "1") int CTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), modelService.getModelInfo(MCODE), inOutService.getInReport(LOGC, BONBU, CENTER, UserInfo.getMUT_POSITION(), INLIST, MCODE, YEAR), inOutService.getOutReport(LOGC, BONBU, CENTER, UserInfo.getMUT_POSITION(), OUTLIST, MCODE, YEAR)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">@RequestParam(value = "msg", defaultValue = "") String msg </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "MCODE", defaultValue = "") String MCODE,
+   @RequestParam(value = "NowDay", defaultValue = "0") String NowDay,
+   @RequestParam(value = "CTYPE", defaultValue = "1") int CTYPE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), modelService.getModelInfo(MCODE), inOutService.getNowJegoReport(pDay, StartDay, EndDay, MONTH, LOGC, BONBU, CENTER, JEGO_LIST, MCODE, NowDay, UserInfo.getMUT_POSITION())</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), inOutService.getGTYPELIST(), codeService.getSCodeList("200","201"), CommonService(), inOutService.getInOutListReport(StartDay, EndDay, LOGC, BONBU, CENTER, "", 0, "", 1, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "IOTYPE", defaultValue = "0") int IOTYPE,
+   @RequestParam(value = "EVENT", defaultValue = "") String EVENT,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), codeService.getSCodeList("200","201"), inOutService.getInOutListReport(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, IOTYPE, EVENT, PAGE, 9), CommonService(), inOutService.getGTYPELIST()</t>
+  </si>
+  <si>
+    <t>Ajax_Event_search</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "EUSERID", defaultValue = "") String EUSERID,
+   @RequestParam(value = "EUSERNAME", defaultValue = "") String EUSERNAME,
+   @RequestParam(value = "GNAME", defaultValue = "") String GNAME,
+   @RequestParam(value = "JNAME", defaultValue = "") String JNAME,
+   @RequestParam(value = "ESTATE", defaultValue = "") String ESTATE,
+   @RequestParam(value = "GTYPE", defaultValue = "") String GTYPE,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserInfo(userService.getUserID(request)), inOutService.getEventInfo(StartDay, EndDay, BONBU, CENTER, EUSERID, EUSERNAME, GNAME, JNAME, ESTATE, GTYPE, PAGE, 10), CommonService(), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "YEAR", defaultValue = "0") int YEAR,
+   @RequestParam(value = "MONTH", defaultValue = "0") int MONTH,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "LCODEList", defaultValue = "") String LCODE,
+   @RequestParam(value = "MCODEList", defaultValue = "") String MCODE,
+   @RequestParam(value = "SCODEList", defaultValue = "") String SCODE,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "MCODENAME", defaultValue = "") String MCODENAME,
+   @RequestParam(value = "SCODENAME", defaultValue = "") String SCODENAME,
+   @RequestParam(value = "PTYPE", defaultValue = "1") int PTYPE,
+   @RequestParam(value = "PSIZE", defaultValue = "10") int PSIZE,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getCENTERList(LOGC, BONBU), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC, centerService.getCENTERList(LOGC, BONBU), centerService.getCENTERInfo_Detail(LOGC, BONBU, CENTER), inOutService.getBonbuStatusReport(YEAR, MONTH, LOGC, centerVo.getMCI_CODE(), LCODE, MCODE, SCODE, MNAME, MCODENAME, SCODENAME, PTYPE, PAGE, PSIZE), CommonService(), centerService.getLOGCInfo(), codeService.getSCodeList("200","201"), modelService.MgroupList(LOGC, LCODE, modelService.SgroupList(LOGC, LCODE, MCODE)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getEventReturn(StartDay, EndDay, LOGC, BONBU, CENTER, "", "", 1, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "ENAME", defaultValue = "") String ENAME,
+   @RequestParam(value = "BISSTS", defaultValue = "") String BISSTS,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getEventReturn(StartDay, EndDay, LOGC, BONBU, CENTER, ENAME, BISSTS, PAGE, 10), inOutService.getGTYPELIST()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "ENAME", defaultValue = "") String ENAME,
+   @RequestParam(value = "BISSTS", defaultValue = "") String BISSTS,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE,
+   @RequestParam(value = "ETYPE", defaultValue = "1") String ETYPE,
+   @RequestParam(value = "CMNT", defaultValue = "") String CMNT,
+   @RequestParam(value = "ECHECK", defaultValue = "1") String ECHECK</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), inOutService.updateEventReturn(ECHECK, CMNT, ETYPE, userService.getUserID(request)), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getEventReturn(StartDay, EndDay, LOGC, BONBU, CENTER, ENAME, BISSTS, PAGE, 10), inOutService.getGTYPELIST()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DDJ_CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "JEGOCHK", defaultValue = "") String JEGOCHK,
+   @RequestParam(value = "YEAR", defaultValue = "0") int YEAR,
+   @RequestParam(value = "MONTH", defaultValue = "0") int MONTH</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), formatService.insertJegoFormat(CENTER, JEGOCHK, userService.getUserID(request), YEAR, MONTH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getModelBepum(LOGC, BONBU, CENTER, "", "", 1, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "BISSTS", defaultValue = "") String BISSTS,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), inOutService.getModelBepum(LOGC, BONBU, CENTER, MNAME, BISSTS, PAGE, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), codeService.getSCodeList("200","201"), codeService.getSCodeList("200","200")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "YEAR", defaultValue = "0") int YEAR,
+   @RequestParam(value = "MONTH", defaultValue = "0") int MONTH,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "LGROUP", defaultValue = "") String LGROUP,
+   @RequestParam(value = "KINDS", defaultValue = "") String KINDS</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), inOutService.getJegoMagamReport(YEAR, MONTH, LOGC, BONBU, CENTER, LGROUP, KINDS), codeService.getSCodeList("200","201"), codeService.getSCodeList("200","200")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getJegoMagamReport(YEAR, MONTH, LOGC, BONBU, CENTER, LGROUP, KINDS), inOutService.createJegoMagamExcel(JEGO_LIST, request, savedName), fileService.filePath(request, "TEMP")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "MNAME", defaultValue = "") String MNAME,
+   @RequestParam(value = "IOTYPE", defaultValue = "0") int IOTYPE,
+   @RequestParam(value = "EVENT", defaultValue = "") String EVENT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), inOutService.getInOutListReport_Excel(StartDay, EndDay, LOGC, BONBU, CENTER, MNAME, IOTYPE, EVENT), inOutService.createInOutReportExcel(INOUTLIST, request, savedName), fileService.filePath(request, "TEMP")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(LOGC), centerService.getBONBUList(LOGC), CommonService(), formatService.getDealFormatList(StartDay, EndDay, "", "", "", LOGC, BONBU, CENTER, "", "", CTYPE, 1, 10), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "INLOGC", defaultValue = "") String INLOGC,
+   @RequestParam(value = "INBONBU", defaultValue = "") String INBONBU,
+   @RequestParam(value = "INCENTER", defaultValue = "") String INCENTER,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "CTYPE", defaultValue = "") String CTYPE,
+   @RequestParam(value = "INSTSTYPE", defaultValue = "") String INSTSTYPE,
+   @RequestParam(value = "OUTSTSTYPE", defaultValue = "") String OUTSTSTYPE,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(LOGC),  centerService.getCENTERList(LOGC, BONBU), formatService.getDealFormatList(StartDay, EndDay, INLOGC, INBONBU, INCENTER, LOGC, BONBU, CENTER, INSTSTYPE, OUTSTSTYPE, CTYPE, PAGE, 10), CommonService(), codeService.getSCodeList("200","201")</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Ajax_POPBONBU</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Ajax_POPCENTER</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Ajax_DealSearch</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "POPCTYPE", defaultValue = "Y") String POPCTYPE,
+   @RequestParam(value = "POPStartDay", defaultValue = "") String POPStartDay,
+   @RequestParam(value = "POPEndDay", defaultValue = "") String POPEndDay,
+   @RequestParam(value = "POPLOGC", defaultValue = "") String POPLOGC,
+   @RequestParam(value = "POPBONBU", defaultValue = "") String POPBONBU,
+   @RequestParam(value = "POPCENTER", defaultValue = "") String POPCENTER,
+   @RequestParam(value = "POPINLOGC", defaultValue = "") String POPINLOGC,
+   @RequestParam(value = "POPINBONBU", defaultValue = "") String POPINBONBU,
+   @RequestParam(value = "POPINCENTER", defaultValue = "") String POPINCENTER,
+   @RequestParam(value = "POP_MNAME", defaultValue = "") String POP_MNAME,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE,
+   @RequestParam(value = "PTYPE", defaultValue = "1") int PTYPE,
+   @RequestParam(value = "PSIZE", defaultValue = "10") int PSIZE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), formatService.getDealInoutInfo(POPStartDay, POPEndDay, POPINLOGC, POPINBONBU, POPINCENTER, POPLOGC, POPBONBU, POPCENTER, POP_MNAME, PTYPE, PAGE, PSIZE), CommonService()</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dealformat_Add_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "Deal_CHK", defaultValue = "") String DOCNO,
+   @RequestParam(value = "POPStartDay", defaultValue = "") String POPStartDay,
+   @RequestParam(value = "POPEndDay", defaultValue = "") String POPEndDay</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), formatService.insertFormat(DOCNO, userService.getUserID(request), POPStartDay, POPEndDay)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Dealformat_DETAIL</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), formatService.getDealFormatInfo(DOCNO)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>DealCfm</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO") String DOCNO,
+   @RequestParam(value = "STSTYPE") String STSTYPE,
+   @RequestParam(value = "STS") String STS,
+   @RequestParam(value = "DDT_CMNT") String CMNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatService.updateDocTRANCfm(DOCNO, INSTS, OUTSTS, CMNT, userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Ajax_DealExcel</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileService.Isfile(DOCNO + ".xlsx", "EXCEL", request), formatService.getDealFormatInfo(DOCNO), formatService.createExcel(vo, request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>/Jegoformat_Add_Save</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserInfo(userService.getUserID(request)), formatService.insertJegoFormat(CENTER, JEGOCHK, userService.getUserID(request), YEAR, MONTH)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), CommonService(), JegoFormatList = formatService.getJegoFormatList(StartDay, EndDay, LOGC, BONBU, CENTER, "", 1, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "StartDay", defaultValue = "") String StartDay,
+   @RequestParam(value = "EndDay", defaultValue = "") String EndDay,
+   @RequestParam(value = "LOGC", defaultValue = "") String LOGC,
+   @RequestParam(value = "BONBU", defaultValue = "") String BONBU,
+   @RequestParam(value = "CENTER", defaultValue = "") String CENTER,
+   @RequestParam(value = "INSTSTYPE", defaultValue = "") String STSTYPE,
+   @RequestParam(value = "PAGE", defaultValue = "1") int PAGE</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), centerService.getLOGCInfo(), centerService.getCENTERList(LOGC, BONBU), centerService.getBONBUList(LOGC), centerService.getCENTERList(LOGC, BONBU), formatService.getJegoFormatList(StartDay, EndDay, LOGC, BONBU, CENTER, STSTYPE, PAGE, 10)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t xml:space="preserve">userService.getUserID(request), userService.getUserInfo(userService.getUserID(request)), formatService.getJegoFormatInfo(DOCNO), </t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>@RequestParam(value = "DOCNO") String DOCNO,
+   @RequestParam(value = "STS") String STS,
+   @RequestParam(value = "DDJ_CMNT") String CMNT</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>formatService.updateJegoDocTRANCfm(DOCNO, STS, CMNT, userService.getUserID(request))</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>fileService.Isfile(DOCNO + ".xlsx", "EXCEL", request), formatService.getJegoFormatInfo(DOCNO), formatService.createJegoExcel(vo, request)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -980,8 +2459,25 @@
       <charset val="129"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="맑은 고딕"/>
+      <family val="3"/>
+      <charset val="129"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1000,8 +2496,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -1074,32 +2576,89 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
@@ -1117,11 +2676,50 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="3" xfId="0" quotePrefix="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1403,11 +3001,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H118"/>
+  <dimension ref="A1:I167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" sqref="A1:XFD1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A53" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G8" sqref="G8:G68"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1416,827 +3014,2065 @@
     <col min="2" max="2" width="22" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="29.5" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="37.375" customWidth="1"/>
-    <col min="6" max="6" width="33.125" customWidth="1"/>
+    <col min="5" max="5" width="29.5" customWidth="1"/>
+    <col min="6" max="6" width="37.375" customWidth="1"/>
+    <col min="7" max="7" width="33.125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="3" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:9" s="13" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
+        <v>233</v>
+      </c>
+      <c r="F1" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="5" t="s">
+      <c r="G1" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2"/>
-    </row>
-    <row r="2" spans="1:8" ht="108" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="I1" s="12"/>
+    </row>
+    <row r="2" spans="1:9" s="14" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="15" t="s">
+        <v>234</v>
+      </c>
+      <c r="D2" s="15" t="s">
+        <v>235</v>
+      </c>
+      <c r="E2" s="14" t="s">
+        <v>237</v>
+      </c>
+      <c r="F2" s="23" t="s">
+        <v>236</v>
+      </c>
+      <c r="G2" s="17" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" ht="108" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
         <v>7</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>32</v>
       </c>
-      <c r="E2" s="4" t="s">
+      <c r="E3" t="s">
+        <v>238</v>
+      </c>
+      <c r="F3" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" s="18"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D4" t="s">
+        <v>239</v>
+      </c>
+      <c r="E4" t="s">
+        <v>241</v>
+      </c>
+      <c r="F4" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G4" s="18"/>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="D5" t="s">
+        <v>242</v>
+      </c>
+      <c r="E5" t="s">
+        <v>243</v>
+      </c>
+      <c r="F5" s="6" t="s">
+        <v>240</v>
+      </c>
+      <c r="G5" s="18"/>
+    </row>
+    <row r="6" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="D6" t="s">
+        <v>244</v>
+      </c>
+      <c r="E6" t="s">
+        <v>246</v>
+      </c>
+      <c r="F6" s="6" t="s">
+        <v>245</v>
+      </c>
+      <c r="G6" s="18"/>
+    </row>
+    <row r="7" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="D7" t="s">
+        <v>247</v>
+      </c>
+      <c r="E7" t="s">
+        <v>249</v>
+      </c>
+      <c r="F7" s="6" t="s">
+        <v>248</v>
+      </c>
+      <c r="G7" s="19"/>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
         <v>8</v>
       </c>
-      <c r="F3" s="7" t="s">
+      <c r="G8" s="17" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E9" t="s">
+        <v>250</v>
+      </c>
+      <c r="F9" s="8" t="s">
+        <v>222</v>
+      </c>
+      <c r="G9" s="18"/>
+    </row>
+    <row r="10" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="D10" t="s">
+        <v>251</v>
+      </c>
+      <c r="E10" t="s">
+        <v>253</v>
+      </c>
+      <c r="F10" s="6" t="s">
+        <v>252</v>
+      </c>
+      <c r="G10" s="18"/>
+    </row>
+    <row r="11" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="D11" t="s">
+        <v>254</v>
+      </c>
+      <c r="E11" t="s">
+        <v>255</v>
+      </c>
+      <c r="F11" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G11" s="18"/>
+    </row>
+    <row r="12" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="D12" t="s">
+        <v>256</v>
+      </c>
+      <c r="E12" t="s">
+        <v>257</v>
+      </c>
+      <c r="F12" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G12" s="18"/>
+    </row>
+    <row r="13" spans="1:9" ht="66" x14ac:dyDescent="0.3">
+      <c r="C13" t="s">
+        <v>41</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>258</v>
+      </c>
+      <c r="F13" s="6" t="s">
+        <v>223</v>
+      </c>
+      <c r="G13" s="18"/>
+    </row>
+    <row r="14" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="D14" t="s">
+        <v>259</v>
+      </c>
+      <c r="E14" t="s">
+        <v>261</v>
+      </c>
+      <c r="F14" s="6" t="s">
+        <v>260</v>
+      </c>
+      <c r="G14" s="18"/>
+    </row>
+    <row r="15" spans="1:9" ht="33" x14ac:dyDescent="0.3">
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G15" s="18"/>
+    </row>
+    <row r="16" spans="1:9" ht="99" x14ac:dyDescent="0.3">
+      <c r="C16" t="s">
+        <v>43</v>
+      </c>
+      <c r="D16" t="s">
+        <v>42</v>
+      </c>
+      <c r="E16" t="s">
+        <v>258</v>
+      </c>
+      <c r="F16" s="6" t="s">
+        <v>224</v>
+      </c>
+      <c r="G16" s="18"/>
+    </row>
+    <row r="17" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="D17" t="s">
+        <v>264</v>
+      </c>
+      <c r="E17" t="s">
+        <v>263</v>
+      </c>
+      <c r="F17" s="6" t="s">
+        <v>265</v>
+      </c>
+      <c r="G17" s="18"/>
+    </row>
+    <row r="18" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D18" t="s">
+        <v>266</v>
+      </c>
+      <c r="E18" t="s">
+        <v>263</v>
+      </c>
+      <c r="F18" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G18" s="18"/>
+    </row>
+    <row r="19" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="C19" t="s">
+        <v>44</v>
+      </c>
+      <c r="D19" t="s">
+        <v>225</v>
+      </c>
+      <c r="E19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F19" s="6" t="s">
+        <v>226</v>
+      </c>
+      <c r="G19" s="18"/>
+    </row>
+    <row r="20" spans="2:7" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D20" t="s">
+        <v>268</v>
+      </c>
+      <c r="E20" t="s">
+        <v>270</v>
+      </c>
+      <c r="F20" s="6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G20" s="18"/>
+    </row>
+    <row r="21" spans="2:7" ht="147.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D21" t="s">
+        <v>271</v>
+      </c>
+      <c r="E21" t="s">
+        <v>263</v>
+      </c>
+      <c r="F21" s="6" t="s">
+        <v>272</v>
+      </c>
+      <c r="G21" s="18"/>
+    </row>
+    <row r="22" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D22" t="s">
+        <v>273</v>
+      </c>
+      <c r="E22" t="s">
+        <v>274</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G22" s="18"/>
+    </row>
+    <row r="23" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D23" t="s">
+        <v>275</v>
+      </c>
+      <c r="E23" t="s">
+        <v>277</v>
+      </c>
+      <c r="F23" s="6" t="s">
+        <v>276</v>
+      </c>
+      <c r="G23" s="18"/>
+    </row>
+    <row r="24" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D24" t="s">
+        <v>278</v>
+      </c>
+      <c r="E24" t="s">
+        <v>280</v>
+      </c>
+      <c r="F24" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G24" s="18"/>
+    </row>
+    <row r="25" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D25" t="s">
+        <v>281</v>
+      </c>
+      <c r="E25" t="s">
+        <v>283</v>
+      </c>
+      <c r="F25" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G25" s="18"/>
+    </row>
+    <row r="26" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="C26" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" t="s">
+        <v>37</v>
+      </c>
+      <c r="E26" t="s">
+        <v>291</v>
+      </c>
+      <c r="F26" s="6" t="s">
+        <v>227</v>
+      </c>
+      <c r="G26" s="18"/>
+    </row>
+    <row r="27" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="C27" t="s">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s">
+        <v>39</v>
+      </c>
+      <c r="E27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" s="6" t="s">
+        <v>228</v>
+      </c>
+      <c r="G27" s="18"/>
+    </row>
+    <row r="28" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>13</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="E28" t="s">
+        <v>293</v>
+      </c>
+      <c r="F28" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G28" s="18"/>
+    </row>
+    <row r="29" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="D29" s="16" t="s">
+        <v>294</v>
+      </c>
+      <c r="E29" t="s">
+        <v>296</v>
+      </c>
+      <c r="F29" s="6" t="s">
+        <v>295</v>
+      </c>
+      <c r="G29" s="18"/>
+    </row>
+    <row r="30" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D30" t="s">
+        <v>45</v>
+      </c>
+      <c r="E30" t="s">
+        <v>297</v>
+      </c>
+      <c r="F30" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G30" s="18"/>
+    </row>
+    <row r="31" spans="2:7" ht="170.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D31" t="s">
+        <v>47</v>
+      </c>
+      <c r="E31" t="s">
+        <v>298</v>
+      </c>
+      <c r="F31" s="6" t="s">
+        <v>229</v>
+      </c>
+      <c r="G31" s="18"/>
+    </row>
+    <row r="32" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D32" t="s">
+        <v>48</v>
+      </c>
+      <c r="E32" t="s">
+        <v>301</v>
+      </c>
+      <c r="F32" s="6" t="s">
+        <v>230</v>
+      </c>
+      <c r="G32" s="18"/>
+    </row>
+    <row r="33" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D33" t="s">
+        <v>49</v>
+      </c>
+      <c r="E33" t="s">
+        <v>302</v>
+      </c>
+      <c r="F33" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G33" s="18"/>
+    </row>
+    <row r="34" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D34" t="s">
+        <v>50</v>
+      </c>
+      <c r="E34" t="s">
+        <v>303</v>
+      </c>
+      <c r="F34" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G34" s="18"/>
+    </row>
+    <row r="35" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>51</v>
+      </c>
+      <c r="E35" t="s">
+        <v>299</v>
+      </c>
+      <c r="F35" s="6" t="s">
+        <v>290</v>
+      </c>
+      <c r="G35" s="18"/>
+    </row>
+    <row r="36" spans="2:7" ht="167.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D36" t="s">
+        <v>53</v>
+      </c>
+      <c r="E36" t="s">
+        <v>298</v>
+      </c>
+      <c r="F36" s="6" t="s">
+        <v>300</v>
+      </c>
+      <c r="G36" s="18"/>
+    </row>
+    <row r="37" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D37" t="s">
+        <v>52</v>
+      </c>
+      <c r="E37" t="s">
+        <v>305</v>
+      </c>
+      <c r="F37" s="6" t="s">
+        <v>304</v>
+      </c>
+      <c r="G37" s="18"/>
+    </row>
+    <row r="38" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>14</v>
+      </c>
+      <c r="D38" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B4" t="s">
-        <v>12</v>
-      </c>
-      <c r="D4" t="s">
-        <v>35</v>
-      </c>
-      <c r="F4" s="7"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C5" t="s">
-        <v>41</v>
-      </c>
-      <c r="D5" t="s">
-        <v>40</v>
-      </c>
-      <c r="F5" s="7"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C6" t="s">
-        <v>43</v>
-      </c>
-      <c r="D6" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="7"/>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C7" t="s">
-        <v>44</v>
-      </c>
-      <c r="D7" t="s">
-        <v>45</v>
-      </c>
-      <c r="F7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C8" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C9" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" t="s">
-        <v>39</v>
-      </c>
-      <c r="F9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="B10" t="s">
-        <v>13</v>
-      </c>
-      <c r="D10" t="s">
-        <v>47</v>
-      </c>
-      <c r="F10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
-        <v>46</v>
-      </c>
-      <c r="F11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D12" t="s">
-        <v>48</v>
-      </c>
-      <c r="F12" s="7"/>
-    </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D13" t="s">
+      <c r="E38" t="s">
+        <v>306</v>
+      </c>
+      <c r="F38" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G38" s="18"/>
+    </row>
+    <row r="39" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D39" t="s">
+        <v>56</v>
+      </c>
+      <c r="E39" t="s">
+        <v>308</v>
+      </c>
+      <c r="F39" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G39" s="18"/>
+    </row>
+    <row r="40" spans="2:7" ht="171" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D40" t="s">
+        <v>57</v>
+      </c>
+      <c r="E40" t="s">
+        <v>263</v>
+      </c>
+      <c r="F40" s="6" t="s">
+        <v>309</v>
+      </c>
+      <c r="G40" s="18"/>
+    </row>
+    <row r="41" spans="2:7" ht="157.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D41" t="s">
+        <v>58</v>
+      </c>
+      <c r="E41" t="s">
+        <v>311</v>
+      </c>
+      <c r="F41" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G41" s="18"/>
+    </row>
+    <row r="42" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D42" t="s">
+        <v>59</v>
+      </c>
+      <c r="E42" t="s">
+        <v>263</v>
+      </c>
+      <c r="F42" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G42" s="18"/>
+    </row>
+    <row r="43" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D43" t="s">
+        <v>60</v>
+      </c>
+      <c r="E43" t="s">
+        <v>313</v>
+      </c>
+      <c r="F43" s="6" t="s">
+        <v>307</v>
+      </c>
+      <c r="G43" s="18"/>
+    </row>
+    <row r="44" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D44" t="s">
+        <v>61</v>
+      </c>
+      <c r="E44" t="s">
+        <v>315</v>
+      </c>
+      <c r="F44" s="6" t="s">
+        <v>314</v>
+      </c>
+      <c r="G44" s="18"/>
+    </row>
+    <row r="45" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D45" t="s">
+        <v>62</v>
+      </c>
+      <c r="E45" t="s">
+        <v>317</v>
+      </c>
+      <c r="F45" s="6" t="s">
+        <v>316</v>
+      </c>
+      <c r="G45" s="18"/>
+    </row>
+    <row r="46" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D46" t="s">
+        <v>63</v>
+      </c>
+      <c r="E46" t="s">
+        <v>318</v>
+      </c>
+      <c r="F46" s="6" t="s">
+        <v>312</v>
+      </c>
+      <c r="G46" s="18"/>
+    </row>
+    <row r="47" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>15</v>
+      </c>
+      <c r="D47" t="s">
+        <v>64</v>
+      </c>
+      <c r="E47" t="s">
+        <v>319</v>
+      </c>
+      <c r="F47" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G47" s="18"/>
+    </row>
+    <row r="48" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D48" t="s">
+        <v>67</v>
+      </c>
+      <c r="E48" t="s">
+        <v>320</v>
+      </c>
+      <c r="F48" s="6" t="s">
+        <v>284</v>
+      </c>
+      <c r="G48" s="18"/>
+    </row>
+    <row r="49" spans="2:7" ht="169.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D49" t="s">
+        <v>74</v>
+      </c>
+      <c r="E49" t="s">
+        <v>322</v>
+      </c>
+      <c r="F49" s="6" t="s">
+        <v>321</v>
+      </c>
+      <c r="G49" s="18"/>
+    </row>
+    <row r="50" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D50" t="s">
+        <v>75</v>
+      </c>
+      <c r="E50" t="s">
+        <v>263</v>
+      </c>
+      <c r="F50" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G50" s="18"/>
+    </row>
+    <row r="51" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D51" t="s">
+        <v>68</v>
+      </c>
+      <c r="E51" t="s">
+        <v>286</v>
+      </c>
+      <c r="F51" s="6" t="s">
+        <v>285</v>
+      </c>
+      <c r="G51" s="18"/>
+    </row>
+    <row r="52" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="D52" t="s">
+        <v>72</v>
+      </c>
+      <c r="E52" t="s">
+        <v>288</v>
+      </c>
+      <c r="F52" s="6" t="s">
+        <v>287</v>
+      </c>
+      <c r="G52" s="18"/>
+    </row>
+    <row r="53" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D53" t="s">
+        <v>73</v>
+      </c>
+      <c r="E53" t="s">
+        <v>289</v>
+      </c>
+      <c r="F53" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G53" s="18"/>
+    </row>
+    <row r="54" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E54" t="s">
+        <v>324</v>
+      </c>
+      <c r="F54" s="6" t="s">
+        <v>323</v>
+      </c>
+      <c r="G54" s="18"/>
+    </row>
+    <row r="55" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D55" t="s">
+        <v>70</v>
+      </c>
+      <c r="E55" t="s">
+        <v>328</v>
+      </c>
+      <c r="F55" s="6" t="s">
+        <v>327</v>
+      </c>
+      <c r="G55" s="18"/>
+    </row>
+    <row r="56" spans="2:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D56" t="s">
+        <v>71</v>
+      </c>
+      <c r="E56" t="s">
+        <v>326</v>
+      </c>
+      <c r="F56" s="6" t="s">
+        <v>325</v>
+      </c>
+      <c r="G56" s="18"/>
+    </row>
+    <row r="57" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D57" t="s">
+        <v>65</v>
+      </c>
+      <c r="E57" t="s">
+        <v>329</v>
+      </c>
+      <c r="F57" s="6" t="s">
+        <v>279</v>
+      </c>
+      <c r="G57" s="18"/>
+    </row>
+    <row r="58" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D58" t="s">
+        <v>66</v>
+      </c>
+      <c r="E58" t="s">
+        <v>330</v>
+      </c>
+      <c r="F58" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G58" s="18"/>
+    </row>
+    <row r="59" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>16</v>
+      </c>
+      <c r="D59" t="s">
+        <v>76</v>
+      </c>
+      <c r="E59" t="s">
+        <v>331</v>
+      </c>
+      <c r="F59" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G59" s="18"/>
+    </row>
+    <row r="60" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D60" t="s">
+        <v>332</v>
+      </c>
+      <c r="E60" t="s">
+        <v>334</v>
+      </c>
+      <c r="F60" s="6" t="s">
+        <v>333</v>
+      </c>
+      <c r="G60" s="18"/>
+    </row>
+    <row r="61" spans="2:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D61" t="s">
+        <v>77</v>
+      </c>
+      <c r="E61" t="s">
+        <v>336</v>
+      </c>
+      <c r="F61" s="6" t="s">
+        <v>335</v>
+      </c>
+      <c r="G61" s="18"/>
+    </row>
+    <row r="62" spans="2:7" ht="142.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D62" t="s">
+        <v>78</v>
+      </c>
+      <c r="E62" t="s">
+        <v>338</v>
+      </c>
+      <c r="F62" s="6" t="s">
+        <v>337</v>
+      </c>
+      <c r="G62" s="18"/>
+    </row>
+    <row r="63" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D63" t="s">
+        <v>79</v>
+      </c>
+      <c r="E63" t="s">
+        <v>340</v>
+      </c>
+      <c r="F63" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G63" s="18"/>
+    </row>
+    <row r="64" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D64" t="s">
         <v>49</v>
       </c>
-      <c r="F13" s="7"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
+      <c r="E64" t="s">
+        <v>302</v>
+      </c>
+      <c r="F64" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G64" s="18"/>
+    </row>
+    <row r="65" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D65" t="s">
+        <v>80</v>
+      </c>
+      <c r="E65" t="s">
+        <v>303</v>
+      </c>
+      <c r="F65" s="6" t="s">
+        <v>232</v>
+      </c>
+      <c r="G65" s="18"/>
+    </row>
+    <row r="66" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D66" t="s">
+        <v>81</v>
+      </c>
+      <c r="E66" t="s">
+        <v>302</v>
+      </c>
+      <c r="F66" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G66" s="18"/>
+    </row>
+    <row r="67" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="D67" t="s">
+        <v>82</v>
+      </c>
+      <c r="E67" t="s">
+        <v>342</v>
+      </c>
+      <c r="F67" s="6" t="s">
+        <v>341</v>
+      </c>
+      <c r="G67" s="18"/>
+    </row>
+    <row r="68" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D68" t="s">
+        <v>343</v>
+      </c>
+      <c r="E68" t="s">
+        <v>344</v>
+      </c>
+      <c r="F68" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G68" s="19"/>
+    </row>
+    <row r="69" spans="1:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A69" t="s">
+        <v>9</v>
+      </c>
+      <c r="G69" s="9" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>17</v>
+      </c>
+      <c r="D70" t="s">
+        <v>83</v>
+      </c>
+      <c r="E70" t="s">
+        <v>345</v>
+      </c>
+      <c r="F70" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="9"/>
+    </row>
+    <row r="71" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="D71" t="s">
+        <v>349</v>
+      </c>
+      <c r="E71" t="s">
+        <v>347</v>
+      </c>
+      <c r="F71" s="6" t="s">
+        <v>346</v>
+      </c>
+      <c r="G71" s="9"/>
+    </row>
+    <row r="72" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D72" t="s">
+        <v>84</v>
+      </c>
+      <c r="E72" t="s">
+        <v>348</v>
+      </c>
+      <c r="F72" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="9"/>
+    </row>
+    <row r="73" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D73" t="s">
+        <v>85</v>
+      </c>
+      <c r="E73" t="s">
+        <v>354</v>
+      </c>
+      <c r="F73" s="6" t="s">
+        <v>353</v>
+      </c>
+      <c r="G73" s="9"/>
+    </row>
+    <row r="74" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D74" t="s">
+        <v>355</v>
+      </c>
+      <c r="E74" t="s">
+        <v>356</v>
+      </c>
+      <c r="F74" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G74" s="9"/>
+    </row>
+    <row r="75" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D75" t="s">
+        <v>357</v>
+      </c>
+      <c r="E75" t="s">
+        <v>356</v>
+      </c>
+      <c r="F75" s="6" t="s">
+        <v>358</v>
+      </c>
+      <c r="G75" s="9"/>
+    </row>
+    <row r="76" spans="1:7" ht="111" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D76" t="s">
+        <v>359</v>
+      </c>
+      <c r="E76" t="s">
+        <v>360</v>
+      </c>
+      <c r="F76" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G76" s="9"/>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D77" t="s">
+        <v>61</v>
+      </c>
+      <c r="F77" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G77" s="9"/>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="D78" t="s">
+        <v>62</v>
+      </c>
+      <c r="F78" s="20"/>
+      <c r="G78" s="9"/>
+    </row>
+    <row r="79" spans="1:7" ht="126.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D79" t="s">
+        <v>86</v>
+      </c>
+      <c r="E79" t="s">
+        <v>350</v>
+      </c>
+      <c r="F79" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G79" s="9"/>
+    </row>
+    <row r="80" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D80" t="s">
+        <v>87</v>
+      </c>
+      <c r="E80" t="s">
+        <v>352</v>
+      </c>
+      <c r="F80" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G80" s="9"/>
+    </row>
+    <row r="81" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>18</v>
+      </c>
+      <c r="D81" t="s">
+        <v>88</v>
+      </c>
+      <c r="E81" t="s">
+        <v>362</v>
+      </c>
+      <c r="F81" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G81" s="9"/>
+    </row>
+    <row r="82" spans="2:7" ht="231" x14ac:dyDescent="0.3">
+      <c r="D82" t="s">
+        <v>363</v>
+      </c>
+      <c r="E82" t="s">
+        <v>365</v>
+      </c>
+      <c r="F82" s="6" t="s">
+        <v>364</v>
+      </c>
+      <c r="G82" s="9"/>
+    </row>
+    <row r="83" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D83" t="s">
+        <v>89</v>
+      </c>
+      <c r="E83" t="s">
+        <v>319</v>
+      </c>
+      <c r="F83" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G83" s="9"/>
+    </row>
+    <row r="84" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D84" t="s">
+        <v>90</v>
+      </c>
+      <c r="E84" t="s">
+        <v>372</v>
+      </c>
+      <c r="F84" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G84" s="9"/>
+    </row>
+    <row r="85" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D85" t="s">
+        <v>373</v>
+      </c>
+      <c r="E85" t="s">
+        <v>374</v>
+      </c>
+      <c r="F85" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G85" s="9"/>
+    </row>
+    <row r="86" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D86" t="s">
+        <v>375</v>
+      </c>
+      <c r="E86" t="s">
+        <v>376</v>
+      </c>
+      <c r="F86" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G86" s="9"/>
+    </row>
+    <row r="87" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D87" t="s">
+        <v>377</v>
+      </c>
+      <c r="E87" t="s">
+        <v>378</v>
+      </c>
+      <c r="F87" s="6" t="s">
+        <v>371</v>
+      </c>
+      <c r="G87" s="9"/>
+    </row>
+    <row r="88" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D88" t="s">
+        <v>379</v>
+      </c>
+      <c r="E88" t="s">
+        <v>380</v>
+      </c>
+      <c r="F88" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G88" s="9"/>
+    </row>
+    <row r="89" spans="2:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="D89" t="s">
+        <v>91</v>
+      </c>
+      <c r="E89" t="s">
+        <v>367</v>
+      </c>
+      <c r="F89" s="6" t="s">
+        <v>366</v>
+      </c>
+      <c r="G89" s="9"/>
+    </row>
+    <row r="90" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D90" t="s">
+        <v>92</v>
+      </c>
+      <c r="E90" t="s">
+        <v>368</v>
+      </c>
+      <c r="F90" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G90" s="9"/>
+    </row>
+    <row r="91" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D91" t="s">
+        <v>93</v>
+      </c>
+      <c r="E91" t="s">
+        <v>370</v>
+      </c>
+      <c r="F91" s="6" t="s">
+        <v>369</v>
+      </c>
+      <c r="G91" s="9"/>
+    </row>
+    <row r="92" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B92" t="s">
+        <v>19</v>
+      </c>
+      <c r="D92" t="s">
+        <v>94</v>
+      </c>
+      <c r="E92" t="s">
+        <v>381</v>
+      </c>
+      <c r="F92" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G92" s="9"/>
+    </row>
+    <row r="93" spans="2:7" ht="139.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D93" t="s">
+        <v>382</v>
+      </c>
+      <c r="E93" t="s">
+        <v>384</v>
+      </c>
+      <c r="F93" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G93" s="9"/>
+    </row>
+    <row r="94" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D94" t="s">
+        <v>95</v>
+      </c>
+      <c r="E94" t="s">
+        <v>385</v>
+      </c>
+      <c r="F94" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G94" s="9"/>
+    </row>
+    <row r="95" spans="2:7" ht="175.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D95" t="s">
+        <v>96</v>
+      </c>
+      <c r="E95" t="s">
+        <v>388</v>
+      </c>
+      <c r="F95" s="6" t="s">
+        <v>387</v>
+      </c>
+      <c r="G95" s="9"/>
+    </row>
+    <row r="96" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D96" t="s">
+        <v>61</v>
+      </c>
+      <c r="F96" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G96" s="9"/>
+    </row>
+    <row r="97" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D97" t="s">
+        <v>62</v>
+      </c>
+      <c r="F97" s="20"/>
+      <c r="G97" s="9"/>
+    </row>
+    <row r="98" spans="2:7" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D98" t="s">
+        <v>97</v>
+      </c>
+      <c r="E98" t="s">
+        <v>386</v>
+      </c>
+      <c r="F98" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G98" s="9"/>
+    </row>
+    <row r="99" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D99" t="s">
         <v>50</v>
       </c>
-      <c r="F14" s="7"/>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D15" t="s">
-        <v>51</v>
-      </c>
-      <c r="F15" s="7"/>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="D16" t="s">
-        <v>52</v>
-      </c>
-      <c r="F16" s="7"/>
-    </row>
-    <row r="17" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D17" t="s">
-        <v>54</v>
-      </c>
-      <c r="F17" s="7"/>
-    </row>
-    <row r="18" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D18" t="s">
-        <v>53</v>
-      </c>
-      <c r="F18" s="7"/>
-    </row>
-    <row r="19" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B19" t="s">
-        <v>14</v>
-      </c>
-      <c r="D19" t="s">
-        <v>56</v>
-      </c>
-      <c r="F19" s="7"/>
-    </row>
-    <row r="20" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D20" t="s">
-        <v>57</v>
-      </c>
-      <c r="F20" s="7"/>
-    </row>
-    <row r="21" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D21" t="s">
-        <v>58</v>
-      </c>
-      <c r="F21" s="7"/>
-    </row>
-    <row r="22" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D22" t="s">
-        <v>59</v>
-      </c>
-      <c r="F22" s="7"/>
-    </row>
-    <row r="23" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D23" t="s">
-        <v>60</v>
-      </c>
-      <c r="F23" s="7"/>
-    </row>
-    <row r="24" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D24" t="s">
+      <c r="F99" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G99" s="9"/>
+    </row>
+    <row r="100" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D100" t="s">
+        <v>49</v>
+      </c>
+      <c r="F100" s="20"/>
+      <c r="G100" s="9"/>
+    </row>
+    <row r="101" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D101" t="s">
+        <v>98</v>
+      </c>
+      <c r="E101" t="s">
+        <v>389</v>
+      </c>
+      <c r="F101" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G101" s="9"/>
+    </row>
+    <row r="102" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D102" t="s">
+        <v>390</v>
+      </c>
+      <c r="E102" t="s">
+        <v>389</v>
+      </c>
+      <c r="F102" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G102" s="9"/>
+    </row>
+    <row r="103" spans="2:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D103" t="s">
+        <v>391</v>
+      </c>
+      <c r="E103" t="s">
+        <v>393</v>
+      </c>
+      <c r="F103" s="6" t="s">
+        <v>392</v>
+      </c>
+      <c r="G103" s="9"/>
+    </row>
+    <row r="104" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D104" t="s">
+        <v>394</v>
+      </c>
+      <c r="E104" t="s">
+        <v>395</v>
+      </c>
+      <c r="F104" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G104" s="9"/>
+    </row>
+    <row r="105" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D105" t="s">
+        <v>396</v>
+      </c>
+      <c r="E105" t="s">
+        <v>397</v>
+      </c>
+      <c r="F105" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G105" s="9"/>
+    </row>
+    <row r="106" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B106" t="s">
+        <v>20</v>
+      </c>
+      <c r="D106" t="s">
+        <v>99</v>
+      </c>
+      <c r="E106" t="s">
+        <v>398</v>
+      </c>
+      <c r="F106" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G106" s="9"/>
+    </row>
+    <row r="107" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D107" t="s">
+        <v>399</v>
+      </c>
+      <c r="E107" t="s">
+        <v>401</v>
+      </c>
+      <c r="F107" s="6" t="s">
+        <v>400</v>
+      </c>
+      <c r="G107" s="9"/>
+    </row>
+    <row r="108" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D108" t="s">
+        <v>100</v>
+      </c>
+      <c r="E108" t="s">
+        <v>403</v>
+      </c>
+      <c r="F108" s="6" t="s">
+        <v>402</v>
+      </c>
+      <c r="G108" s="9"/>
+    </row>
+    <row r="109" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D109" t="s">
+        <v>102</v>
+      </c>
+      <c r="E109" t="s">
+        <v>409</v>
+      </c>
+      <c r="F109" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G109" s="9"/>
+    </row>
+    <row r="110" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D110" t="s">
+        <v>103</v>
+      </c>
+      <c r="E110" t="s">
+        <v>408</v>
+      </c>
+      <c r="F110" s="6" t="s">
+        <v>407</v>
+      </c>
+      <c r="G110" s="9"/>
+    </row>
+    <row r="111" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D111" t="s">
+        <v>104</v>
+      </c>
+      <c r="E111" t="s">
+        <v>404</v>
+      </c>
+      <c r="F111" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G111" s="9"/>
+    </row>
+    <row r="112" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D112" t="s">
+        <v>101</v>
+      </c>
+      <c r="E112" t="s">
+        <v>411</v>
+      </c>
+      <c r="F112" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G112" s="9"/>
+    </row>
+    <row r="113" spans="2:7" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D113" t="s">
+        <v>105</v>
+      </c>
+      <c r="E113" t="s">
+        <v>406</v>
+      </c>
+      <c r="F113" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G113" s="9"/>
+    </row>
+    <row r="114" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B114" t="s">
+        <v>21</v>
+      </c>
+      <c r="D114" t="s">
+        <v>106</v>
+      </c>
+      <c r="E114" t="s">
+        <v>421</v>
+      </c>
+      <c r="F114" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G114" s="9"/>
+    </row>
+    <row r="115" spans="2:7" ht="121.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D115" t="s">
+        <v>422</v>
+      </c>
+      <c r="E115" t="s">
+        <v>424</v>
+      </c>
+      <c r="F115" s="6" t="s">
+        <v>423</v>
+      </c>
+      <c r="G115" s="9"/>
+    </row>
+    <row r="116" spans="2:7" ht="201.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D116" t="s">
+        <v>107</v>
+      </c>
+      <c r="E116" t="s">
+        <v>426</v>
+      </c>
+      <c r="F116" s="6" t="s">
+        <v>425</v>
+      </c>
+      <c r="G116" s="9"/>
+    </row>
+    <row r="117" spans="2:7" ht="177" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D117" t="s">
+        <v>108</v>
+      </c>
+      <c r="E117" t="s">
+        <v>428</v>
+      </c>
+      <c r="F117" s="6" t="s">
+        <v>427</v>
+      </c>
+      <c r="G117" s="9"/>
+    </row>
+    <row r="118" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B118" t="s">
+        <v>22</v>
+      </c>
+      <c r="D118" t="s">
+        <v>109</v>
+      </c>
+      <c r="E118" t="s">
+        <v>429</v>
+      </c>
+      <c r="F118" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G118" s="9"/>
+    </row>
+    <row r="119" spans="2:7" ht="231" x14ac:dyDescent="0.3">
+      <c r="D119" t="s">
+        <v>430</v>
+      </c>
+      <c r="E119" t="s">
+        <v>431</v>
+      </c>
+      <c r="F119" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="G119" s="9"/>
+    </row>
+    <row r="120" spans="2:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D120" t="s">
+        <v>110</v>
+      </c>
+      <c r="E120" t="s">
+        <v>385</v>
+      </c>
+      <c r="F120" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G120" s="9"/>
+    </row>
+    <row r="121" spans="2:7" ht="149.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D121" t="s">
+        <v>111</v>
+      </c>
+      <c r="E121" t="s">
+        <v>420</v>
+      </c>
+      <c r="F121" s="6" t="s">
+        <v>419</v>
+      </c>
+      <c r="G121" s="9"/>
+    </row>
+    <row r="122" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D122" t="s">
+        <v>432</v>
+      </c>
+      <c r="E122" t="s">
+        <v>434</v>
+      </c>
+      <c r="F122" s="6" t="s">
+        <v>433</v>
+      </c>
+      <c r="G122" s="9"/>
+    </row>
+    <row r="123" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D123" t="s">
         <v>61</v>
       </c>
-      <c r="F24" s="7"/>
-    </row>
-    <row r="25" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D25" t="s">
+      <c r="F123" s="20" t="s">
+        <v>361</v>
+      </c>
+      <c r="G123" s="9"/>
+    </row>
+    <row r="124" spans="2:7" x14ac:dyDescent="0.3">
+      <c r="D124" t="s">
         <v>62</v>
       </c>
-      <c r="F25" s="7"/>
-    </row>
-    <row r="26" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D26" t="s">
-        <v>63</v>
-      </c>
-      <c r="F26" s="7"/>
-    </row>
-    <row r="27" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D27" t="s">
-        <v>64</v>
-      </c>
-      <c r="F27" s="7"/>
-    </row>
-    <row r="28" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B28" t="s">
-        <v>15</v>
-      </c>
-      <c r="D28" t="s">
-        <v>65</v>
-      </c>
-      <c r="F28" s="7"/>
-    </row>
-    <row r="29" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D29" t="s">
-        <v>68</v>
-      </c>
-      <c r="F29" s="7"/>
-    </row>
-    <row r="30" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D30" t="s">
-        <v>75</v>
-      </c>
-      <c r="F30" s="7"/>
-    </row>
-    <row r="31" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D31" t="s">
-        <v>76</v>
-      </c>
-      <c r="F31" s="7"/>
-    </row>
-    <row r="32" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D32" t="s">
-        <v>69</v>
-      </c>
-      <c r="F32" s="7"/>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D33" t="s">
-        <v>73</v>
-      </c>
-      <c r="F33" s="7"/>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D34" t="s">
-        <v>74</v>
-      </c>
-      <c r="F34" s="7"/>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D35" t="s">
-        <v>70</v>
-      </c>
-      <c r="F35" s="7"/>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D36" t="s">
-        <v>71</v>
-      </c>
-      <c r="F36" s="7"/>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D37" t="s">
-        <v>72</v>
-      </c>
-      <c r="F37" s="7"/>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D38" t="s">
-        <v>66</v>
-      </c>
-      <c r="F38" s="7"/>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D39" t="s">
-        <v>67</v>
-      </c>
-      <c r="F39" s="7"/>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B40" t="s">
-        <v>16</v>
-      </c>
-      <c r="D40" t="s">
-        <v>77</v>
-      </c>
-      <c r="F40" s="7"/>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D41" t="s">
-        <v>78</v>
-      </c>
-      <c r="F41" s="7"/>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D42" t="s">
-        <v>79</v>
-      </c>
-      <c r="F42" s="7"/>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D43" t="s">
-        <v>80</v>
-      </c>
-      <c r="F43" s="7"/>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D44" t="s">
-        <v>50</v>
-      </c>
-      <c r="F44" s="7"/>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D45" t="s">
-        <v>81</v>
-      </c>
-      <c r="F45" s="7"/>
-    </row>
-    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D46" t="s">
-        <v>82</v>
-      </c>
-      <c r="F46" s="7"/>
-    </row>
-    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D47" t="s">
-        <v>83</v>
-      </c>
-      <c r="F47" s="7"/>
-    </row>
-    <row r="48" spans="1:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A48" t="s">
-        <v>9</v>
-      </c>
-      <c r="F48" s="7" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B49" t="s">
-        <v>17</v>
-      </c>
-      <c r="D49" t="s">
-        <v>84</v>
-      </c>
-      <c r="F49" s="7"/>
-    </row>
-    <row r="50" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D50" t="s">
-        <v>85</v>
-      </c>
-      <c r="F50" s="7"/>
-    </row>
-    <row r="51" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D51" t="s">
-        <v>86</v>
-      </c>
-      <c r="F51" s="7"/>
-    </row>
-    <row r="52" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D52" t="s">
-        <v>62</v>
-      </c>
-      <c r="F52" s="7"/>
-    </row>
-    <row r="53" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D53" t="s">
-        <v>63</v>
-      </c>
-      <c r="F53" s="7"/>
-    </row>
-    <row r="54" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D54" t="s">
-        <v>87</v>
-      </c>
-      <c r="F54" s="7"/>
-    </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D55" t="s">
-        <v>88</v>
-      </c>
-      <c r="F55" s="7"/>
-    </row>
-    <row r="56" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B56" t="s">
-        <v>18</v>
-      </c>
-      <c r="D56" t="s">
-        <v>89</v>
-      </c>
-      <c r="F56" s="7"/>
-    </row>
-    <row r="57" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D57" t="s">
-        <v>90</v>
-      </c>
-      <c r="F57" s="7"/>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D58" t="s">
-        <v>91</v>
-      </c>
-      <c r="F58" s="7"/>
-    </row>
-    <row r="59" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D59" t="s">
-        <v>92</v>
-      </c>
-      <c r="F59" s="7"/>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D60" t="s">
-        <v>93</v>
-      </c>
-      <c r="F60" s="7"/>
-    </row>
-    <row r="61" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D61" t="s">
-        <v>94</v>
-      </c>
-      <c r="F61" s="7"/>
-    </row>
-    <row r="62" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B62" t="s">
-        <v>19</v>
-      </c>
-      <c r="D62" t="s">
-        <v>95</v>
-      </c>
-      <c r="F62" s="7"/>
-    </row>
-    <row r="63" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D63" t="s">
-        <v>96</v>
-      </c>
-      <c r="F63" s="7"/>
-    </row>
-    <row r="64" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D64" t="s">
+      <c r="F124" s="20"/>
+      <c r="G124" s="9"/>
+    </row>
+    <row r="125" spans="2:7" ht="128.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D125" t="s">
         <v>97</v>
       </c>
-      <c r="F64" s="7"/>
-    </row>
-    <row r="65" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D65" t="s">
-        <v>62</v>
-      </c>
-      <c r="F65" s="7"/>
-    </row>
-    <row r="66" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D66" t="s">
-        <v>63</v>
-      </c>
-      <c r="F66" s="7"/>
-    </row>
-    <row r="67" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D67" t="s">
-        <v>98</v>
-      </c>
-      <c r="F67" s="7"/>
-    </row>
-    <row r="68" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D68" t="s">
-        <v>51</v>
-      </c>
-      <c r="F68" s="7"/>
-    </row>
-    <row r="69" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D69" t="s">
-        <v>50</v>
-      </c>
-      <c r="F69" s="7"/>
-    </row>
-    <row r="70" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D70" t="s">
-        <v>99</v>
-      </c>
-      <c r="F70" s="7"/>
-    </row>
-    <row r="71" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B71" t="s">
-        <v>20</v>
-      </c>
-      <c r="D71" t="s">
-        <v>100</v>
-      </c>
-      <c r="F71" s="7"/>
-    </row>
-    <row r="72" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D72" t="s">
+      <c r="E125" t="s">
+        <v>418</v>
+      </c>
+      <c r="F125" s="6" t="s">
+        <v>310</v>
+      </c>
+      <c r="G125" s="9"/>
+    </row>
+    <row r="126" spans="2:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D126" t="s">
+        <v>104</v>
+      </c>
+      <c r="E126" t="s">
+        <v>302</v>
+      </c>
+      <c r="F126" s="6" t="s">
+        <v>231</v>
+      </c>
+      <c r="G126" s="9"/>
+    </row>
+    <row r="127" spans="2:7" ht="181.5" x14ac:dyDescent="0.3">
+      <c r="D127" t="s">
+        <v>105</v>
+      </c>
+      <c r="E127" t="s">
+        <v>412</v>
+      </c>
+      <c r="F127" s="6" t="s">
+        <v>405</v>
+      </c>
+      <c r="G127" s="9"/>
+    </row>
+    <row r="128" spans="2:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="D128" t="s">
         <v>101</v>
       </c>
-      <c r="F72" s="7"/>
-    </row>
-    <row r="73" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D73" t="s">
-        <v>103</v>
-      </c>
-      <c r="F73" s="7"/>
-    </row>
-    <row r="74" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D74" t="s">
-        <v>104</v>
-      </c>
-      <c r="F74" s="7"/>
-    </row>
-    <row r="75" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D75" t="s">
-        <v>105</v>
-      </c>
-      <c r="F75" s="7"/>
-    </row>
-    <row r="76" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D76" t="s">
-        <v>102</v>
-      </c>
-      <c r="F76" s="7"/>
-    </row>
-    <row r="77" spans="2:6" ht="15.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D77" t="s">
-        <v>106</v>
-      </c>
-      <c r="F77" s="7"/>
-    </row>
-    <row r="78" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B78" t="s">
-        <v>21</v>
-      </c>
-      <c r="D78" t="s">
-        <v>107</v>
-      </c>
-      <c r="F78" s="7"/>
-    </row>
-    <row r="79" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D79" t="s">
-        <v>108</v>
-      </c>
-      <c r="F79" s="7"/>
-    </row>
-    <row r="80" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D80" t="s">
-        <v>109</v>
-      </c>
-      <c r="F80" s="7"/>
-    </row>
-    <row r="81" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B81" t="s">
-        <v>22</v>
-      </c>
-      <c r="D81" t="s">
-        <v>110</v>
-      </c>
-      <c r="F81" s="7"/>
-    </row>
-    <row r="82" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D82" t="s">
-        <v>111</v>
-      </c>
-      <c r="F82" s="7"/>
-    </row>
-    <row r="83" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D83" t="s">
+      <c r="E128" t="s">
+        <v>417</v>
+      </c>
+      <c r="F128" s="6" t="s">
+        <v>410</v>
+      </c>
+      <c r="G128" s="9"/>
+    </row>
+    <row r="129" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D129" t="s">
+        <v>413</v>
+      </c>
+      <c r="E129" t="s">
+        <v>302</v>
+      </c>
+      <c r="F129" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G129" s="9"/>
+    </row>
+    <row r="130" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D130" t="s">
+        <v>415</v>
+      </c>
+      <c r="E130" t="s">
+        <v>303</v>
+      </c>
+      <c r="F130" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G130" s="9"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="F131" s="6"/>
+      <c r="G131" s="9"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A132" t="s">
+        <v>10</v>
+      </c>
+      <c r="G132" s="9"/>
+    </row>
+    <row r="133" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B133" t="s">
+        <v>23</v>
+      </c>
+      <c r="D133" t="s">
         <v>112</v>
       </c>
-      <c r="F83" s="7"/>
-    </row>
-    <row r="84" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D84" t="s">
-        <v>62</v>
-      </c>
-      <c r="F84" s="7"/>
-    </row>
-    <row r="85" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D85" t="s">
-        <v>63</v>
-      </c>
-      <c r="F85" s="7"/>
-    </row>
-    <row r="86" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D86" t="s">
-        <v>98</v>
-      </c>
-      <c r="F86" s="7"/>
-    </row>
-    <row r="87" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D87" t="s">
-        <v>105</v>
-      </c>
-      <c r="F87" s="7"/>
-    </row>
-    <row r="88" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D88" t="s">
-        <v>106</v>
-      </c>
-      <c r="F88" s="7"/>
-    </row>
-    <row r="89" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D89" t="s">
+      <c r="E133" t="s">
+        <v>348</v>
+      </c>
+      <c r="F133" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G133" s="9"/>
+    </row>
+    <row r="134" spans="1:7" ht="165" x14ac:dyDescent="0.3">
+      <c r="D134" t="s">
         <v>113</v>
       </c>
-      <c r="F89" s="7"/>
-    </row>
-    <row r="90" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D90" t="s">
-        <v>102</v>
-      </c>
-      <c r="F90" s="7"/>
-    </row>
-    <row r="91" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A91" t="s">
-        <v>10</v>
-      </c>
-      <c r="F91" s="7"/>
-    </row>
-    <row r="92" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B92" t="s">
-        <v>23</v>
-      </c>
-      <c r="D92" t="s">
+      <c r="E134" t="s">
+        <v>436</v>
+      </c>
+      <c r="F134" s="6" t="s">
+        <v>435</v>
+      </c>
+      <c r="G134" s="9"/>
+    </row>
+    <row r="135" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B135" t="s">
+        <v>24</v>
+      </c>
+      <c r="D135" t="s">
         <v>114</v>
       </c>
-      <c r="F92" s="7"/>
-    </row>
-    <row r="93" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D93" t="s">
+      <c r="E135" t="s">
+        <v>438</v>
+      </c>
+      <c r="F135" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G135" s="9"/>
+    </row>
+    <row r="136" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D136" t="s">
         <v>115</v>
       </c>
-      <c r="F93" s="7"/>
-    </row>
-    <row r="94" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B94" t="s">
-        <v>24</v>
-      </c>
-      <c r="D94" t="s">
+      <c r="E136" t="s">
+        <v>440</v>
+      </c>
+      <c r="F136" s="6" t="s">
+        <v>439</v>
+      </c>
+      <c r="G136" s="9"/>
+    </row>
+    <row r="137" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B137" t="s">
+        <v>25</v>
+      </c>
+      <c r="D137" t="s">
         <v>116</v>
       </c>
-      <c r="F94" s="7"/>
-    </row>
-    <row r="95" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D95" t="s">
+      <c r="E137" t="s">
+        <v>441</v>
+      </c>
+      <c r="F137" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G137" s="9"/>
+    </row>
+    <row r="138" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D138" t="s">
         <v>117</v>
       </c>
-      <c r="F95" s="7"/>
-    </row>
-    <row r="96" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B96" t="s">
-        <v>25</v>
-      </c>
-      <c r="D96" t="s">
+      <c r="E138" t="s">
+        <v>443</v>
+      </c>
+      <c r="F138" s="6" t="s">
+        <v>442</v>
+      </c>
+      <c r="G138" s="9"/>
+    </row>
+    <row r="139" spans="1:7" ht="150.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D139" t="s">
+        <v>444</v>
+      </c>
+      <c r="E139" t="s">
+        <v>446</v>
+      </c>
+      <c r="F139" s="6" t="s">
+        <v>445</v>
+      </c>
+      <c r="G139" s="9"/>
+    </row>
+    <row r="140" spans="1:7" ht="264" x14ac:dyDescent="0.3">
+      <c r="D140" t="s">
+        <v>129</v>
+      </c>
+      <c r="E140" t="s">
+        <v>465</v>
+      </c>
+      <c r="F140" s="6" t="s">
+        <v>464</v>
+      </c>
+      <c r="G140" s="9"/>
+    </row>
+    <row r="141" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B141" t="s">
+        <v>26</v>
+      </c>
+      <c r="D141" t="s">
         <v>118</v>
       </c>
-      <c r="F96" s="7"/>
-    </row>
-    <row r="97" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D97" t="s">
+      <c r="E141" t="s">
+        <v>447</v>
+      </c>
+      <c r="F141" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G141" s="9"/>
+    </row>
+    <row r="142" spans="1:7" ht="229.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D142" t="s">
         <v>119</v>
       </c>
-      <c r="F97" s="7"/>
-    </row>
-    <row r="98" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D98" t="s">
+      <c r="E142" t="s">
+        <v>449</v>
+      </c>
+      <c r="F142" s="6" t="s">
+        <v>448</v>
+      </c>
+      <c r="G142" s="9"/>
+    </row>
+    <row r="143" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D143" t="s">
+        <v>120</v>
+      </c>
+      <c r="E143" t="s">
+        <v>456</v>
+      </c>
+      <c r="F143" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G143" s="9"/>
+    </row>
+    <row r="144" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B144" t="s">
+        <v>27</v>
+      </c>
+      <c r="D144" t="s">
+        <v>121</v>
+      </c>
+      <c r="E144" t="s">
+        <v>450</v>
+      </c>
+      <c r="F144" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G144" s="9"/>
+    </row>
+    <row r="145" spans="1:7" ht="180.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D145" t="s">
+        <v>122</v>
+      </c>
+      <c r="E145" t="s">
+        <v>452</v>
+      </c>
+      <c r="F145" s="6" t="s">
+        <v>451</v>
+      </c>
+      <c r="G145" s="9"/>
+    </row>
+    <row r="146" spans="1:7" ht="195.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D146" t="s">
+        <v>123</v>
+      </c>
+      <c r="E146" t="s">
+        <v>454</v>
+      </c>
+      <c r="F146" s="6" t="s">
+        <v>453</v>
+      </c>
+      <c r="G146" s="9"/>
+    </row>
+    <row r="147" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B147" t="s">
+        <v>28</v>
+      </c>
+      <c r="D147" t="s">
+        <v>124</v>
+      </c>
+      <c r="E147" t="s">
+        <v>457</v>
+      </c>
+      <c r="F147" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G147" s="9"/>
+    </row>
+    <row r="148" spans="1:7" ht="198" x14ac:dyDescent="0.3">
+      <c r="D148" t="s">
+        <v>125</v>
+      </c>
+      <c r="E148" t="s">
+        <v>459</v>
+      </c>
+      <c r="F148" s="6" t="s">
+        <v>458</v>
+      </c>
+      <c r="G148" s="9"/>
+    </row>
+    <row r="149" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B149" t="s">
+        <v>29</v>
+      </c>
+      <c r="D149" t="s">
+        <v>126</v>
+      </c>
+      <c r="E149" t="s">
+        <v>460</v>
+      </c>
+      <c r="F149" s="6" t="s">
+        <v>437</v>
+      </c>
+      <c r="G149" s="9"/>
+    </row>
+    <row r="150" spans="1:7" ht="231" x14ac:dyDescent="0.3">
+      <c r="D150" t="s">
+        <v>127</v>
+      </c>
+      <c r="E150" t="s">
+        <v>462</v>
+      </c>
+      <c r="F150" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G150" s="9"/>
+    </row>
+    <row r="151" spans="1:7" ht="231" x14ac:dyDescent="0.3">
+      <c r="D151" t="s">
+        <v>128</v>
+      </c>
+      <c r="E151" t="s">
+        <v>463</v>
+      </c>
+      <c r="F151" s="6" t="s">
+        <v>461</v>
+      </c>
+      <c r="G151" s="9"/>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>11</v>
+      </c>
+      <c r="G152" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B153" t="s">
+        <v>30</v>
+      </c>
+      <c r="D153" t="s">
+        <v>130</v>
+      </c>
+      <c r="E153" t="s">
+        <v>466</v>
+      </c>
+      <c r="F153" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G153" s="22"/>
+    </row>
+    <row r="154" spans="1:7" ht="135.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D154" t="s">
+        <v>132</v>
+      </c>
+      <c r="E154" t="s">
+        <v>468</v>
+      </c>
+      <c r="F154" s="6" t="s">
+        <v>467</v>
+      </c>
+      <c r="G154" s="22"/>
+    </row>
+    <row r="155" spans="1:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D155" t="s">
+        <v>474</v>
+      </c>
+      <c r="E155" t="s">
+        <v>476</v>
+      </c>
+      <c r="F155" s="6" t="s">
+        <v>475</v>
+      </c>
+      <c r="G155" s="22"/>
+    </row>
+    <row r="156" spans="1:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D156" t="s">
+        <v>477</v>
+      </c>
+      <c r="E156" t="s">
+        <v>478</v>
+      </c>
+      <c r="F156" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G156" s="22"/>
+    </row>
+    <row r="157" spans="1:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D157" t="s">
+        <v>479</v>
+      </c>
+      <c r="E157" t="s">
+        <v>481</v>
+      </c>
+      <c r="F157" s="6" t="s">
+        <v>480</v>
+      </c>
+      <c r="G157" s="22"/>
+    </row>
+    <row r="158" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D158" t="s">
+        <v>482</v>
+      </c>
+      <c r="E158" t="s">
+        <v>483</v>
+      </c>
+      <c r="F158" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G158" s="22"/>
+    </row>
+    <row r="159" spans="1:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="B159" t="s">
+        <v>31</v>
+      </c>
+      <c r="D159" t="s">
         <v>131</v>
       </c>
-      <c r="F98" s="7"/>
-    </row>
-    <row r="99" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B99" t="s">
-        <v>26</v>
-      </c>
-      <c r="D99" t="s">
-        <v>120</v>
-      </c>
-      <c r="F99" s="7"/>
-    </row>
-    <row r="100" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D100" t="s">
-        <v>121</v>
-      </c>
-      <c r="F100" s="7"/>
-    </row>
-    <row r="101" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D101" t="s">
-        <v>122</v>
-      </c>
-      <c r="F101" s="7"/>
-    </row>
-    <row r="102" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B102" t="s">
-        <v>27</v>
-      </c>
-      <c r="D102" t="s">
-        <v>123</v>
-      </c>
-      <c r="F102" s="7"/>
-    </row>
-    <row r="103" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D103" t="s">
-        <v>124</v>
-      </c>
-      <c r="F103" s="7"/>
-    </row>
-    <row r="104" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D104" t="s">
-        <v>125</v>
-      </c>
-      <c r="F104" s="7"/>
-    </row>
-    <row r="105" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B105" t="s">
-        <v>28</v>
-      </c>
-      <c r="D105" t="s">
-        <v>126</v>
-      </c>
-      <c r="F105" s="7"/>
-    </row>
-    <row r="106" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D106" t="s">
-        <v>127</v>
-      </c>
-      <c r="F106" s="7"/>
-    </row>
-    <row r="107" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B107" t="s">
-        <v>29</v>
-      </c>
-      <c r="D107" t="s">
-        <v>128</v>
-      </c>
-      <c r="F107" s="7"/>
-    </row>
-    <row r="108" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D108" t="s">
-        <v>129</v>
-      </c>
-      <c r="F108" s="7"/>
-    </row>
-    <row r="109" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D109" t="s">
-        <v>130</v>
-      </c>
-      <c r="F109" s="7"/>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A110" t="s">
-        <v>11</v>
-      </c>
-      <c r="F110" s="7" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="B111" t="s">
-        <v>30</v>
-      </c>
-      <c r="D111" t="s">
-        <v>132</v>
-      </c>
-      <c r="F111" s="7"/>
-    </row>
-    <row r="112" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="D112" t="s">
+      <c r="E159" t="s">
+        <v>486</v>
+      </c>
+      <c r="F159" s="6" t="s">
+        <v>222</v>
+      </c>
+      <c r="G159" s="22"/>
+    </row>
+    <row r="160" spans="1:7" ht="231" x14ac:dyDescent="0.3">
+      <c r="D160" t="s">
+        <v>133</v>
+      </c>
+      <c r="E160" t="s">
+        <v>488</v>
+      </c>
+      <c r="F160" s="6" t="s">
+        <v>487</v>
+      </c>
+      <c r="G160" s="22"/>
+    </row>
+    <row r="161" spans="4:7" ht="132" x14ac:dyDescent="0.3">
+      <c r="D161" t="s">
+        <v>484</v>
+      </c>
+      <c r="E161" t="s">
+        <v>485</v>
+      </c>
+      <c r="F161" s="6" t="s">
+        <v>455</v>
+      </c>
+      <c r="G161" s="22"/>
+    </row>
+    <row r="162" spans="4:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D162" t="s">
         <v>134</v>
       </c>
-      <c r="F112" s="7"/>
-    </row>
-    <row r="113" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="F113" s="7"/>
-    </row>
-    <row r="114" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="B114" t="s">
-        <v>31</v>
-      </c>
-      <c r="D114" t="s">
-        <v>133</v>
-      </c>
-      <c r="F114" s="7"/>
-    </row>
-    <row r="115" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D115" t="s">
+      <c r="E162" t="s">
+        <v>489</v>
+      </c>
+      <c r="F162" s="6" t="s">
+        <v>351</v>
+      </c>
+      <c r="G162" s="22"/>
+    </row>
+    <row r="163" spans="4:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D163" t="s">
         <v>135</v>
       </c>
-      <c r="F115" s="7"/>
-    </row>
-    <row r="116" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D116" t="s">
+      <c r="E163" t="s">
+        <v>491</v>
+      </c>
+      <c r="F163" s="6" t="s">
+        <v>490</v>
+      </c>
+      <c r="G163" s="22"/>
+    </row>
+    <row r="164" spans="4:7" ht="33" x14ac:dyDescent="0.3">
+      <c r="D164" t="s">
         <v>136</v>
       </c>
-      <c r="F116" s="7"/>
-    </row>
-    <row r="117" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D117" t="s">
-        <v>137</v>
-      </c>
-      <c r="F117" s="7"/>
-    </row>
-    <row r="118" spans="2:6" x14ac:dyDescent="0.3">
-      <c r="D118" t="s">
-        <v>138</v>
-      </c>
-      <c r="F118" s="7"/>
+      <c r="E164" t="s">
+        <v>492</v>
+      </c>
+      <c r="F164" s="6" t="s">
+        <v>339</v>
+      </c>
+      <c r="G164" s="22"/>
+    </row>
+    <row r="165" spans="4:7" ht="66" x14ac:dyDescent="0.3">
+      <c r="D165" t="s">
+        <v>469</v>
+      </c>
+      <c r="E165" t="s">
+        <v>303</v>
+      </c>
+      <c r="F165" s="6" t="s">
+        <v>416</v>
+      </c>
+      <c r="G165" s="22"/>
+    </row>
+    <row r="166" spans="4:7" ht="99" x14ac:dyDescent="0.3">
+      <c r="D166" t="s">
+        <v>470</v>
+      </c>
+      <c r="E166" t="s">
+        <v>302</v>
+      </c>
+      <c r="F166" s="6" t="s">
+        <v>414</v>
+      </c>
+      <c r="G166" s="22"/>
+    </row>
+    <row r="167" spans="4:7" ht="162" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="D167" t="s">
+        <v>471</v>
+      </c>
+      <c r="E167" t="s">
+        <v>473</v>
+      </c>
+      <c r="F167" s="6" t="s">
+        <v>472</v>
+      </c>
+      <c r="G167" s="22"/>
     </row>
   </sheetData>
-  <mergeCells count="3">
-    <mergeCell ref="F48:F109"/>
-    <mergeCell ref="F3:F47"/>
-    <mergeCell ref="F110:F118"/>
+  <mergeCells count="8">
+    <mergeCell ref="G2:G7"/>
+    <mergeCell ref="F99:F100"/>
+    <mergeCell ref="F96:F97"/>
+    <mergeCell ref="F123:F124"/>
+    <mergeCell ref="G152:G167"/>
+    <mergeCell ref="G69:G151"/>
+    <mergeCell ref="G8:G68"/>
+    <mergeCell ref="F77:F78"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -2248,7 +5084,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="E32" sqref="E32"/>
     </sheetView>
@@ -2261,374 +5097,374 @@
     <col min="5" max="5" width="55.375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="6" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" s="4" customFormat="1" ht="29.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="8" t="s">
+      <c r="D1" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="E1" s="7" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="B2" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="C2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D2" t="s">
+        <v>185</v>
+      </c>
+      <c r="E2" s="6" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B3" s="11"/>
+      <c r="C3" t="s">
+        <v>143</v>
+      </c>
+      <c r="D3" t="s">
+        <v>198</v>
+      </c>
+      <c r="E3" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="B4" s="11"/>
+      <c r="C4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D4" t="s">
+        <v>187</v>
+      </c>
+      <c r="E4" s="6" t="s">
+        <v>186</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B5" s="11"/>
+      <c r="C5" t="s">
+        <v>145</v>
+      </c>
+      <c r="D5" t="s">
+        <v>179</v>
+      </c>
+      <c r="E5" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
+      <c r="B6" s="11"/>
+      <c r="C6" t="s">
+        <v>176</v>
+      </c>
+      <c r="D6" t="s">
+        <v>183</v>
+      </c>
+      <c r="E6" s="6" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B7" s="11"/>
+      <c r="C7" t="s">
+        <v>146</v>
+      </c>
+      <c r="D7" t="s">
+        <v>181</v>
+      </c>
+      <c r="E7" s="6" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
+      <c r="B8" s="11"/>
+      <c r="C8" t="s">
+        <v>147</v>
+      </c>
+      <c r="D8" t="s">
+        <v>214</v>
+      </c>
+      <c r="E8" s="6" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B9" s="11"/>
+      <c r="C9" t="s">
+        <v>148</v>
+      </c>
+      <c r="D9" t="s">
+        <v>192</v>
+      </c>
+      <c r="E9" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
+      <c r="B10" s="11"/>
+      <c r="C10" t="s">
+        <v>149</v>
+      </c>
+      <c r="D10" t="s">
+        <v>194</v>
+      </c>
+      <c r="E10" s="6" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B11" s="11"/>
+      <c r="C11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" t="s">
+        <v>212</v>
+      </c>
+      <c r="E11" s="6" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B12" s="11"/>
+      <c r="C12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" t="s">
+        <v>216</v>
+      </c>
+      <c r="E12" s="6" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="B13" s="11"/>
+      <c r="C13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" t="s">
+        <v>195</v>
+      </c>
+      <c r="E13" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.3">
+      <c r="B14" s="11"/>
+      <c r="C14" t="s">
+        <v>153</v>
+      </c>
+      <c r="D14" t="s">
+        <v>207</v>
+      </c>
+      <c r="E14" s="6" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B15" s="11"/>
+      <c r="C15" t="s">
+        <v>154</v>
+      </c>
+      <c r="D15" t="s">
+        <v>209</v>
+      </c>
+      <c r="E15" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" ht="379.5" x14ac:dyDescent="0.3">
+      <c r="B16" s="11"/>
+      <c r="C16" t="s">
+        <v>155</v>
+      </c>
+      <c r="D16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E16" s="6" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B17" s="11"/>
+      <c r="C17" t="s">
+        <v>156</v>
+      </c>
+      <c r="D17" t="s">
+        <v>210</v>
+      </c>
+      <c r="E17" s="6" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="B18" s="11"/>
+      <c r="C18" t="s">
+        <v>157</v>
+      </c>
+      <c r="D18" t="s">
+        <v>189</v>
+      </c>
+      <c r="E18" s="6" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B19" s="11"/>
+      <c r="C19" t="s">
         <v>141</v>
       </c>
-      <c r="E1" s="10" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B2" s="13" t="s">
+    </row>
+    <row r="20" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B20" s="11"/>
+      <c r="C20" t="s">
+        <v>158</v>
+      </c>
+      <c r="D20" t="s">
+        <v>191</v>
+      </c>
+      <c r="E20" s="6" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B21" s="11"/>
+      <c r="C21" t="s">
+        <v>159</v>
+      </c>
+      <c r="D21" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B22" s="11"/>
+      <c r="C22" t="s">
+        <v>160</v>
+      </c>
+      <c r="D22" t="s">
+        <v>140</v>
+      </c>
+      <c r="E22" s="6" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B23" s="11"/>
+      <c r="C23" t="s">
+        <v>161</v>
+      </c>
+      <c r="D23" t="s">
+        <v>173</v>
+      </c>
+      <c r="E23" s="8" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
+      <c r="B24" s="11"/>
+      <c r="C24" t="s">
+        <v>162</v>
+      </c>
+      <c r="D24" t="s">
+        <v>178</v>
+      </c>
+      <c r="E24" s="6" t="s">
         <v>177</v>
       </c>
-      <c r="C2" t="s">
-        <v>144</v>
-      </c>
-      <c r="D2" t="s">
-        <v>187</v>
-      </c>
-      <c r="E2" s="9" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B3" s="12"/>
-      <c r="C3" t="s">
-        <v>145</v>
-      </c>
-      <c r="D3" t="s">
+    </row>
+    <row r="25" spans="2:5" ht="66" x14ac:dyDescent="0.3">
+      <c r="B25" s="11"/>
+      <c r="C25" t="s">
+        <v>163</v>
+      </c>
+      <c r="D25" t="s">
+        <v>201</v>
+      </c>
+      <c r="E25" s="6" t="s">
         <v>200</v>
       </c>
-      <c r="E3" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="B4" s="12"/>
-      <c r="C4" t="s">
-        <v>146</v>
-      </c>
-      <c r="D4" t="s">
-        <v>189</v>
-      </c>
-      <c r="E4" s="9" t="s">
-        <v>188</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B5" s="12"/>
-      <c r="C5" t="s">
-        <v>147</v>
-      </c>
-      <c r="D5" t="s">
-        <v>181</v>
-      </c>
-      <c r="E5" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" ht="82.5" x14ac:dyDescent="0.3">
-      <c r="B6" s="12"/>
-      <c r="C6" t="s">
-        <v>178</v>
-      </c>
-      <c r="D6" t="s">
-        <v>185</v>
-      </c>
-      <c r="E6" s="9" t="s">
-        <v>184</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="135" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="12"/>
-      <c r="C7" t="s">
-        <v>148</v>
-      </c>
-      <c r="D7" t="s">
-        <v>183</v>
-      </c>
-      <c r="E7" s="9" t="s">
-        <v>182</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="115.5" x14ac:dyDescent="0.3">
-      <c r="B8" s="12"/>
-      <c r="C8" t="s">
-        <v>149</v>
-      </c>
-      <c r="D8" t="s">
-        <v>216</v>
-      </c>
-      <c r="E8" s="9" t="s">
-        <v>215</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B9" s="12"/>
-      <c r="C9" t="s">
-        <v>150</v>
-      </c>
-      <c r="D9" t="s">
-        <v>194</v>
-      </c>
-      <c r="E9" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" ht="214.5" x14ac:dyDescent="0.3">
-      <c r="B10" s="12"/>
-      <c r="C10" t="s">
-        <v>151</v>
-      </c>
-      <c r="D10" t="s">
-        <v>196</v>
-      </c>
-      <c r="E10" s="9" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B11" s="12"/>
-      <c r="C11" t="s">
-        <v>152</v>
-      </c>
-      <c r="D11" t="s">
-        <v>214</v>
-      </c>
-      <c r="E11" s="9" t="s">
-        <v>213</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B12" s="12"/>
-      <c r="C12" t="s">
-        <v>153</v>
-      </c>
-      <c r="D12" t="s">
+    </row>
+    <row r="26" spans="2:5" ht="165" x14ac:dyDescent="0.3">
+      <c r="B26" s="11"/>
+      <c r="C26" t="s">
+        <v>164</v>
+      </c>
+      <c r="D26" t="s">
+        <v>205</v>
+      </c>
+      <c r="E26" s="6" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B27" s="11"/>
+      <c r="C27" t="s">
+        <v>165</v>
+      </c>
+      <c r="D27" t="s">
+        <v>217</v>
+      </c>
+      <c r="E27" s="6" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="247.5" x14ac:dyDescent="0.3">
+      <c r="B28" s="11"/>
+      <c r="C28" t="s">
+        <v>166</v>
+      </c>
+      <c r="D28" t="s">
+        <v>219</v>
+      </c>
+      <c r="E28" s="6" t="s">
         <v>218</v>
       </c>
-      <c r="E12" s="9" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="B13" s="12"/>
-      <c r="C13" t="s">
-        <v>154</v>
-      </c>
-      <c r="D13" t="s">
-        <v>197</v>
-      </c>
-      <c r="E13" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="132" x14ac:dyDescent="0.3">
-      <c r="B14" s="12"/>
-      <c r="C14" t="s">
-        <v>155</v>
-      </c>
-      <c r="D14" t="s">
-        <v>209</v>
-      </c>
-      <c r="E14" s="9" t="s">
-        <v>208</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B15" s="12"/>
-      <c r="C15" t="s">
-        <v>156</v>
-      </c>
-      <c r="D15" t="s">
-        <v>211</v>
-      </c>
-      <c r="E15" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" ht="379.5" x14ac:dyDescent="0.3">
-      <c r="B16" s="12"/>
-      <c r="C16" t="s">
-        <v>157</v>
-      </c>
-      <c r="D16" t="s">
-        <v>199</v>
-      </c>
-      <c r="E16" s="9" t="s">
-        <v>198</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B17" s="12"/>
-      <c r="C17" t="s">
-        <v>158</v>
-      </c>
-      <c r="D17" t="s">
-        <v>212</v>
-      </c>
-      <c r="E17" s="9" t="s">
-        <v>210</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B18" s="12"/>
-      <c r="C18" t="s">
-        <v>159</v>
-      </c>
-      <c r="D18" t="s">
-        <v>191</v>
-      </c>
-      <c r="E18" s="9" t="s">
-        <v>190</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B19" s="12"/>
-      <c r="C19" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" ht="153.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B20" s="12"/>
-      <c r="C20" t="s">
-        <v>160</v>
-      </c>
-      <c r="D20" t="s">
-        <v>193</v>
-      </c>
-      <c r="E20" s="9" t="s">
-        <v>192</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B21" s="12"/>
-      <c r="C21" t="s">
-        <v>161</v>
-      </c>
-      <c r="D21" t="s">
-        <v>201</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B22" s="12"/>
-      <c r="C22" t="s">
-        <v>162</v>
-      </c>
-      <c r="D22" t="s">
-        <v>142</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B23" s="12"/>
-      <c r="C23" t="s">
-        <v>163</v>
-      </c>
-      <c r="D23" t="s">
-        <v>175</v>
-      </c>
-      <c r="E23" s="11" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" ht="49.5" x14ac:dyDescent="0.3">
-      <c r="B24" s="12"/>
-      <c r="C24" t="s">
-        <v>164</v>
-      </c>
-      <c r="D24" t="s">
-        <v>180</v>
-      </c>
-      <c r="E24" s="9" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" ht="66" x14ac:dyDescent="0.3">
-      <c r="B25" s="12"/>
-      <c r="C25" t="s">
-        <v>165</v>
-      </c>
-      <c r="D25" t="s">
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B29" s="11"/>
+      <c r="C29" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" ht="99" x14ac:dyDescent="0.3">
+      <c r="B30" s="11"/>
+      <c r="C30" t="s">
+        <v>168</v>
+      </c>
+      <c r="D30" t="s">
         <v>203</v>
       </c>
-      <c r="E25" s="9" t="s">
+      <c r="E30" s="6" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="26" spans="2:5" ht="165" x14ac:dyDescent="0.3">
-      <c r="B26" s="12"/>
-      <c r="C26" t="s">
-        <v>166</v>
-      </c>
-      <c r="D26" t="s">
-        <v>207</v>
-      </c>
-      <c r="E26" s="9" t="s">
-        <v>206</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B27" s="12"/>
-      <c r="C27" t="s">
-        <v>167</v>
-      </c>
-      <c r="D27" t="s">
-        <v>219</v>
-      </c>
-      <c r="E27" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" ht="247.5" x14ac:dyDescent="0.3">
-      <c r="B28" s="12"/>
-      <c r="C28" t="s">
-        <v>168</v>
-      </c>
-      <c r="D28" t="s">
+    <row r="31" spans="2:5" ht="280.5" x14ac:dyDescent="0.3">
+      <c r="B31" s="11"/>
+      <c r="C31" t="s">
+        <v>169</v>
+      </c>
+      <c r="D31" t="s">
         <v>221</v>
       </c>
-      <c r="E28" s="9" t="s">
+      <c r="E31" s="6" t="s">
         <v>220</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B29" s="12"/>
-      <c r="C29" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" ht="99" x14ac:dyDescent="0.3">
-      <c r="B30" s="12"/>
-      <c r="C30" t="s">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B32" s="11"/>
+      <c r="C32" t="s">
         <v>170</v>
-      </c>
-      <c r="D30" t="s">
-        <v>205</v>
-      </c>
-      <c r="E30" s="9" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" ht="280.5" x14ac:dyDescent="0.3">
-      <c r="B31" s="12"/>
-      <c r="C31" t="s">
-        <v>171</v>
-      </c>
-      <c r="D31" t="s">
-        <v>223</v>
-      </c>
-      <c r="E31" s="9" t="s">
-        <v>222</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B32" s="12"/>
-      <c r="C32" t="s">
-        <v>172</v>
       </c>
     </row>
   </sheetData>
